--- a/Report/SpeedUp.xlsx
+++ b/Report/SpeedUp.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhanukagamage/Dropbox/Monash University/FIT3143/Assignment 2/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D54EF7-620B-E14E-A7ED-DE229E9DCA7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06040807-35A6-7C43-B963-B4E523B94D28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{F3CA6A85-1115-7645-940B-AB59F541C353}"/>
+    <workbookView xWindow="-28800" yWindow="4740" windowWidth="28800" windowHeight="33820" activeTab="2" xr2:uid="{F3CA6A85-1115-7645-940B-AB59F541C353}"/>
   </bookViews>
   <sheets>
     <sheet name="tt" sheetId="3" r:id="rId1"/>
     <sheet name="speed up" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>Iteration</t>
-  </si>
-  <si>
-    <t>Node</t>
   </si>
   <si>
     <t>Without OpenMP</t>
@@ -82,9 +80,6 @@
     <t>Encryption</t>
   </si>
   <si>
-    <t>Decryption</t>
-  </si>
-  <si>
     <t>Total Activations</t>
   </si>
   <si>
@@ -105,12 +100,42 @@
   <si>
     <t>Total Act</t>
   </si>
+  <si>
+    <t>Average Time</t>
+  </si>
+  <si>
+    <t>Run 1</t>
+  </si>
+  <si>
+    <t>Run 2</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Decrypt</t>
+  </si>
+  <si>
+    <t>Encrypt</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,16 +143,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -135,15 +173,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,20 +265,31 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Messages Per Iteration</a:t>
             </a:r>
           </a:p>
@@ -214,13 +308,24 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -240,17 +345,84 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>tt!$G$4:$G$103</c:f>
@@ -568,13 +740,15 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1721228463"/>
         <c:axId val="1669622207"/>
@@ -586,6 +760,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -593,7 +822,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -607,9 +836,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -634,53 +863,67 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Messages per Iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1721228463"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -706,15 +949,10 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -758,20 +996,31 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Activations Per Iteration</a:t>
             </a:r>
           </a:p>
@@ -790,13 +1039,24 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -816,17 +1076,84 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>tt!$I$4:$I$103</c:f>
@@ -1144,13 +1471,15 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1726576175"/>
         <c:axId val="1709098239"/>
@@ -1162,6 +1491,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1169,7 +1553,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -1183,9 +1567,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -1210,53 +1594,72 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number ofActivations</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Per Iterration</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1726576175"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1282,15 +1685,10 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1394,25 +1792,25 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1420,7 +1818,30 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1429,41 +1850,16 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <cs:styleClr val="auto"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1479,11 +1875,10 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
+      <a:ln w="9575">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1495,12 +1890,12 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1510,12 +1905,12 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1527,43 +1922,37 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1571,14 +1960,13 @@
     <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointWireframe>
@@ -1587,21 +1975,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1616,15 +2002,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1635,17 +2021,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1654,17 +2039,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -1673,31 +2057,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -1706,17 +2083,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1725,17 +2101,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1744,17 +2119,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1763,27 +2137,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1791,11 +2165,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1803,17 +2188,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1822,12 +2206,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1836,14 +2235,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1852,7 +2250,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1872,9 +2270,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1885,7 +2283,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1897,38 +2295,32 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1936,7 +2328,30 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1945,41 +2360,16 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <cs:styleClr val="auto"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1995,11 +2385,10 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
+      <a:ln w="9575">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2011,12 +2400,12 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2026,12 +2415,12 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2043,43 +2432,37 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -2087,14 +2470,13 @@
     <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointWireframe>
@@ -2103,21 +2485,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2132,15 +2512,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2151,17 +2531,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2170,17 +2549,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -2189,31 +2567,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -2222,17 +2593,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2241,17 +2611,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2260,17 +2629,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2279,27 +2647,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2307,11 +2675,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2319,17 +2698,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -2338,12 +2716,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2352,14 +2745,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2368,7 +2760,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -2388,9 +2780,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2401,7 +2793,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -2413,14 +2805,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2429,16 +2815,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>118802</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>72175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>455352</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>27725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2465,16 +2851,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>604024</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>49876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>563032</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>805107</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>107026</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2801,8 +3187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8124BA4-CB04-A242-92BF-3436BBD80A43}">
   <dimension ref="A1:I460"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView showGridLines="0" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2816,13 +3202,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2853,13 +3239,13 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -10371,223 +10757,1699 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41F3A5A-411E-1343-A5CC-B6DBE40165D3}">
-  <dimension ref="B4:G31"/>
+  <dimension ref="B1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView showGridLines="0" topLeftCell="B34" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="21.83203125" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C1">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>16000</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E4">
-        <v>16000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4">
+      <c r="G1">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="L5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
+      <c r="M5" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="6">
+        <v>3.3600000000000001E-3</v>
+      </c>
+      <c r="L6" s="6">
+        <v>3.3340000000000002E-3</v>
+      </c>
+      <c r="M6" s="6">
+        <v>3.1110000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6">
         <v>3.8379999999999998E-3</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>2.6319999999999998E-3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>2.8119999999999998E-3</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>15</v>
-      </c>
-      <c r="C8">
+      <c r="J7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="6">
+        <v>3.2550000000000001E-3</v>
+      </c>
+      <c r="L7" s="6">
+        <v>3.1350000000000002E-3</v>
+      </c>
+      <c r="M7" s="6">
+        <v>3.986E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6">
         <v>3.4989999999999999E-3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>2.5669999999999998E-3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>3.3089999999999999E-3</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C9">
+      <c r="J8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="6">
+        <f>AVERAGE(K6:K7)</f>
+        <v>3.3075000000000001E-3</v>
+      </c>
+      <c r="L8" s="6">
+        <f>AVERAGE(L6:L7)</f>
+        <v>3.2345000000000004E-3</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" ref="M8" si="0">AVERAGE(M6:M7)</f>
+        <v>3.5485E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6">
         <f>AVERAGE(C7:C8)</f>
         <v>3.6684999999999999E-3</v>
       </c>
-      <c r="D9">
-        <f t="shared" ref="D9:E9" si="0">AVERAGE(D7:D8)</f>
+      <c r="D9" s="6">
+        <f t="shared" ref="D9:E9" si="1">AVERAGE(D7:D8)</f>
         <v>2.5994999999999998E-3</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
+      <c r="E9" s="6">
+        <f t="shared" si="1"/>
         <v>3.0604999999999999E-3</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
+      <c r="J9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8">
+        <f>K8/L8</f>
+        <v>1.02256917607049</v>
+      </c>
+      <c r="M9" s="8">
+        <f>K8/M8</f>
+        <v>0.93208397914611807</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
         <f>C9/D9</f>
         <v>1.4112329294095018</v>
       </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C13">
+      <c r="E10" s="8">
         <f>C9/E9</f>
         <v>1.1986603496160759</v>
       </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>3.823E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>3.411E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16">
+        <v>4.0090000000000004E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
+      <c r="L17" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C19">
+      <c r="M17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>3.3739999999999998E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" s="10"/>
+      <c r="C18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="5">
+        <v>7.3999999999999996E-5</v>
+      </c>
+      <c r="L18" s="5">
+        <v>4.8000000000000001E-5</v>
+      </c>
+      <c r="M18" s="5">
+        <v>2.4420000000000002E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="5">
         <v>3.2750000000000001E-3</v>
       </c>
-      <c r="D19">
-        <v>2.366E-3</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="5">
+        <v>2.0349999999999999E-3</v>
+      </c>
+      <c r="E19" s="5">
         <v>2.4420000000000002E-3</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C20">
-        <v>2.0530000000000001E-3</v>
-      </c>
-      <c r="D20">
+      <c r="J19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="5">
+        <v>7.2000000000000002E-5</v>
+      </c>
+      <c r="L19" s="5">
+        <v>4.8999999999999998E-5</v>
+      </c>
+      <c r="M19" s="5">
+        <v>2.4750000000000002E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2.8370000000000001E-3</v>
+      </c>
+      <c r="D20" s="5">
         <v>2.0929999999999998E-3</v>
       </c>
-      <c r="E20">
-        <v>2.5760000000000002E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C21">
-        <v>2.1949999999999999E-3</v>
-      </c>
-      <c r="D21">
-        <v>2.166E-3</v>
-      </c>
-      <c r="E21">
+      <c r="E20" s="5">
         <v>2.4750000000000002E-3</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C22">
-        <v>2.8370000000000001E-3</v>
-      </c>
-      <c r="D22">
-        <v>2.0349999999999999E-3</v>
-      </c>
-      <c r="E22">
-        <v>2.4919999999999999E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D23">
-        <v>2.6220000000000002E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C27">
-        <f>AVERAGE(C19:C22)</f>
-        <v>2.5900000000000003E-3</v>
-      </c>
-      <c r="D27">
-        <f>AVERAGE(D19:D23)</f>
-        <v>2.2564E-3</v>
-      </c>
-      <c r="E27">
-        <f>AVERAGE(E19:E22)</f>
-        <v>2.4962499999999998E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="J20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="5">
+        <f>AVERAGE(K18:K19)</f>
+        <v>7.2999999999999999E-5</v>
+      </c>
+      <c r="L20" s="5">
+        <f>AVERAGE(L18:L19)</f>
+        <v>4.85E-5</v>
+      </c>
+      <c r="M20" s="5">
+        <f>AVERAGE(M18:M19)</f>
+        <v>2.4585000000000002E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="5">
+        <f>AVERAGE(C19:C20)</f>
+        <v>3.0560000000000001E-3</v>
+      </c>
+      <c r="D21" s="5">
+        <f>AVERAGE(D19:D20)</f>
+        <v>2.0639999999999999E-3</v>
+      </c>
+      <c r="E21" s="5">
+        <f>AVERAGE(E19:E20)</f>
+        <v>2.4585000000000002E-3</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8">
+        <f>K20/L20</f>
+        <v>1.5051546391752577</v>
+      </c>
+      <c r="M21" s="8">
+        <f>K20/M20</f>
+        <v>2.9692902176123651E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8">
+        <f>C21/D21</f>
+        <v>1.4806201550387599</v>
+      </c>
+      <c r="E22" s="8">
+        <f>C21/E21</f>
+        <v>1.2430343705511491</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <f>C21/D21</f>
+        <v>1.4806201550387599</v>
+      </c>
+      <c r="D30" t="s">
         <v>7</v>
       </c>
-      <c r="C30">
-        <f>C27/D27</f>
-        <v>1.1478461265733026</v>
-      </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <f>C21/E21</f>
+        <v>1.2430343705511491</v>
+      </c>
+      <c r="D31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C31">
-        <f>C27/E27</f>
-        <v>1.0375563345017529</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="J16:M16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761CBA4C-D172-AC47-AA23-C429FA586896}">
+  <dimension ref="D2:Q262"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="O259" sqref="O4:O259"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="12">
+        <v>0.14673600000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0.17605100000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="12">
+        <v>8.0990000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="12">
+        <v>0.116928</v>
+      </c>
+    </row>
+    <row r="8" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="12">
+        <v>0.148148</v>
+      </c>
+    </row>
+    <row r="9" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="N9" s="12">
+        <v>0.18413199999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="12">
+        <v>9.3810000000000004E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="12">
+        <v>0.13236100000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="12">
+        <v>0.16913</v>
+      </c>
+    </row>
+    <row r="13" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="12">
+        <v>0.193632</v>
+      </c>
+    </row>
+    <row r="14" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="N14" s="12">
+        <v>0.23474100000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="N15" s="12">
+        <v>0.26896100000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="N16" s="12">
+        <v>0.161299</v>
+      </c>
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="12">
+        <v>0.214277</v>
+      </c>
+    </row>
+    <row r="18" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="12">
+        <v>9.4259999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N19" s="12">
+        <v>0.13234099999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="12">
+        <v>0.166463</v>
+      </c>
+    </row>
+    <row r="21" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="12">
+        <v>0.13253799999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="12">
+        <v>8.7706999999999993E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="12">
+        <v>0.11834799999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="12">
+        <v>0.13855400000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="12">
+        <v>0.14049200000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="12">
+        <v>0.100773</v>
+      </c>
+    </row>
+    <row r="27" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="12">
+        <v>0.129576</v>
+      </c>
+    </row>
+    <row r="28" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="12">
+        <v>0.15590100000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="12">
+        <v>0.18744</v>
+      </c>
+    </row>
+    <row r="30" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="12">
+        <v>0.21379899999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="12">
+        <v>8.0102999999999994E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="12">
+        <v>9.8200999999999997E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="12">
+        <v>0.200681</v>
+      </c>
+    </row>
+    <row r="34" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="12">
+        <v>0.20353099999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="12">
+        <v>0.26027</v>
+      </c>
+    </row>
+    <row r="36" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N36" s="12">
+        <v>9.1297000000000003E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N37" s="12">
+        <v>0.116809</v>
+      </c>
+    </row>
+    <row r="38" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="12">
+        <v>0.133911</v>
+      </c>
+    </row>
+    <row r="39" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N39" s="12">
+        <v>0.176343</v>
+      </c>
+    </row>
+    <row r="40" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N40" s="12">
+        <v>0.14469799999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="12">
+        <v>0.103448</v>
+      </c>
+    </row>
+    <row r="42" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="12">
+        <v>0.13395799999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="12">
+        <v>0.15893499999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="12">
+        <v>0.19774800000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="12">
+        <v>0.23527699999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="12">
+        <v>0.27305800000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="12">
+        <v>0.23952100000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="12">
+        <v>0.29105199999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="12">
+        <v>0.35316199999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="12">
+        <v>0.26442700000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="12">
+        <v>0.23225699999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="12">
+        <v>0.13971700000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="12">
+        <v>0.155612</v>
+      </c>
+    </row>
+    <row r="54" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="12">
+        <v>0.20535100000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N55" s="12">
+        <v>0.23816999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N56" s="12">
+        <v>0.26939400000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="12">
+        <v>7.9705999999999999E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="12">
+        <v>0.10967399999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="12">
+        <v>0.14422099999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="12">
+        <v>0.18346199999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="12">
+        <v>8.7963E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="12">
+        <v>0.121554</v>
+      </c>
+    </row>
+    <row r="63" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="12">
+        <v>0.15887200000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="12">
+        <v>0.18462799999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="12">
+        <v>0.14638699999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="12">
+        <v>0.18434800000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N67" s="12">
+        <v>9.6285999999999997E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="12">
+        <v>8.0976000000000006E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="12">
+        <v>0.14210400000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="12">
+        <v>0.19331200000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="12">
+        <v>8.8705000000000006E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="12">
+        <v>0.12617900000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="12">
+        <v>0.14815600000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="12">
+        <v>0.17846400000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="12">
+        <v>0.14041500000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="12">
+        <v>9.7902000000000003E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="12">
+        <v>0.12712799999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N78" s="12">
+        <v>0.15442800000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N79" s="12">
+        <v>0.210924</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="12">
+        <v>0.21221999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="12">
+        <v>9.2841999999999994E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N82" s="12">
+        <v>0.133746</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="12">
+        <v>0.16477600000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="12">
+        <v>0.21695400000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="12">
+        <v>7.6924999999999993E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="12">
+        <v>0.112708</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="12">
+        <v>0.142785</v>
+      </c>
+    </row>
+    <row r="88" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="12">
+        <v>0.16697300000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="12">
+        <v>0.16750200000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N90" s="12">
+        <v>9.9338999999999997E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="12">
+        <v>0.132491</v>
+      </c>
+    </row>
+    <row r="92" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="12">
+        <v>0.17307400000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="12">
+        <v>0.20874400000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="12">
+        <v>0.237035</v>
+      </c>
+    </row>
+    <row r="95" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N95" s="12">
+        <v>0.24449799999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="12">
+        <v>0.27540900000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="12">
+        <v>0.13208300000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="12">
+        <v>0.10957799999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="12">
+        <v>0.123755</v>
+      </c>
+    </row>
+    <row r="100" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="12">
+        <v>0.15768299999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="12">
+        <v>0.19952600000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N102" s="12">
+        <v>0.243702</v>
+      </c>
+    </row>
+    <row r="103" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N103" s="12">
+        <v>0.22956299999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N104" s="12">
+        <v>8.3224000000000006E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N105" s="12">
+        <v>0.11391900000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N106" s="12">
+        <v>0.146647</v>
+      </c>
+    </row>
+    <row r="107" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N107" s="12">
+        <v>0.201129</v>
+      </c>
+    </row>
+    <row r="108" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N108" s="12">
+        <v>8.4296999999999997E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N109" s="12">
+        <v>0.113079</v>
+      </c>
+    </row>
+    <row r="110" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N110" s="12">
+        <v>0.141014</v>
+      </c>
+    </row>
+    <row r="111" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N111" s="12">
+        <v>0.17657900000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N112" s="12">
+        <v>8.4872000000000003E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N113" s="12">
+        <v>0.11937300000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N114" s="12">
+        <v>0.137484</v>
+      </c>
+    </row>
+    <row r="115" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N115" s="12">
+        <v>0.1391</v>
+      </c>
+    </row>
+    <row r="116" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N116" s="12">
+        <v>7.5606999999999994E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N117" s="12">
+        <v>0.114331</v>
+      </c>
+    </row>
+    <row r="118" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N118" s="12">
+        <v>0.13077900000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N119" s="12">
+        <v>0.17937600000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N120" s="12">
+        <v>7.2763999999999995E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N121" s="12">
+        <v>0.10671</v>
+      </c>
+    </row>
+    <row r="122" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N122" s="12">
+        <v>0.215642</v>
+      </c>
+    </row>
+    <row r="123" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N123" s="12">
+        <v>0.176954</v>
+      </c>
+    </row>
+    <row r="124" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N124" s="12">
+        <v>0.22273000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N125" s="12">
+        <v>0.190997</v>
+      </c>
+    </row>
+    <row r="126" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N126" s="12">
+        <v>8.6527000000000007E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N127" s="12">
+        <v>0.117312</v>
+      </c>
+    </row>
+    <row r="128" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N128" s="12">
+        <v>0.15317900000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N129" s="12">
+        <v>0.13506699999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N130" s="12">
+        <v>8.3795999999999995E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N131" s="12">
+        <v>0.101851</v>
+      </c>
+    </row>
+    <row r="132" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N132" s="12">
+        <v>0.137296</v>
+      </c>
+    </row>
+    <row r="133" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N133" s="12">
+        <v>0.17591699999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N134" s="12">
+        <v>0.162745</v>
+      </c>
+    </row>
+    <row r="135" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N135" s="12">
+        <v>0.1575</v>
+      </c>
+    </row>
+    <row r="136" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N136" s="12">
+        <v>0.108282</v>
+      </c>
+    </row>
+    <row r="137" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N137" s="12">
+        <v>0.12284399999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N138" s="12">
+        <v>0.16129099999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N139" s="12">
+        <v>0.19345799999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N140" s="12">
+        <v>0.237266</v>
+      </c>
+    </row>
+    <row r="141" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N141" s="12">
+        <v>0.26594499999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N142" s="12">
+        <v>0.189333</v>
+      </c>
+    </row>
+    <row r="143" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N143" s="12">
+        <v>7.4684E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N144" s="12">
+        <v>0.102952</v>
+      </c>
+    </row>
+    <row r="145" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N145" s="12">
+        <v>0.14968699999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N146" s="12">
+        <v>0.185303</v>
+      </c>
+    </row>
+    <row r="147" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N147" s="12">
+        <v>0.18665699999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N148" s="12">
+        <v>8.6192000000000005E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N149" s="12">
+        <v>0.108518</v>
+      </c>
+    </row>
+    <row r="150" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N150" s="12">
+        <v>0.15182799999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N151" s="12">
+        <v>0.16739200000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N152" s="12">
+        <v>0.19772300000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N153" s="12">
+        <v>0.19605800000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N154" s="12">
+        <v>0.25911800000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N155" s="12">
+        <v>8.1606999999999999E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N156" s="12">
+        <v>0.108516</v>
+      </c>
+    </row>
+    <row r="157" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N157" s="12">
+        <v>0.14938799999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N158" s="12">
+        <v>0.19126399999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N159" s="12">
+        <v>0.20180899999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N160" s="12">
+        <v>0.19261300000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N161" s="12">
+        <v>0.16282199999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N162" s="12">
+        <v>9.5656000000000005E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N163" s="12">
+        <v>0.123692</v>
+      </c>
+    </row>
+    <row r="164" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N164" s="12">
+        <v>0.14780499999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N165" s="12">
+        <v>0.19157299999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N166" s="12">
+        <v>0.224298</v>
+      </c>
+    </row>
+    <row r="167" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N167" s="12">
+        <v>0.15767300000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N168" s="12">
+        <v>7.6447000000000001E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N169" s="12">
+        <v>0.109815</v>
+      </c>
+    </row>
+    <row r="170" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N170" s="12">
+        <v>0.19453599999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N171" s="12">
+        <v>0.186249</v>
+      </c>
+    </row>
+    <row r="172" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N172" s="12">
+        <v>7.5220999999999996E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N173" s="12">
+        <v>9.9085999999999994E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N174" s="12">
+        <v>0.143988</v>
+      </c>
+    </row>
+    <row r="175" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N175" s="12">
+        <v>0.12449200000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N176" s="12">
+        <v>8.4517999999999996E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N177" s="12">
+        <v>0.123251</v>
+      </c>
+    </row>
+    <row r="178" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N178" s="12">
+        <v>0.145233</v>
+      </c>
+    </row>
+    <row r="179" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N179" s="12">
+        <v>0.18732299999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N180" s="12">
+        <v>0.14416699999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N181" s="12">
+        <v>0.12717700000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N182" s="12">
+        <v>8.2541000000000003E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N183" s="12">
+        <v>0.11303000000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N184" s="12">
+        <v>0.15881600000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N185" s="12">
+        <v>0.21837300000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N186" s="12">
+        <v>0.150621</v>
+      </c>
+    </row>
+    <row r="187" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N187" s="12">
+        <v>0.15887100000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N188" s="12">
+        <v>0.21080399999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N189" s="12">
+        <v>0.107585</v>
+      </c>
+    </row>
+    <row r="190" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N190" s="12">
+        <v>0.141124</v>
+      </c>
+    </row>
+    <row r="191" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N191" s="12">
+        <v>0.15587300000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N192" s="12">
+        <v>0.20413300000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N193" s="12">
+        <v>0.200069</v>
+      </c>
+    </row>
+    <row r="194" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N194" s="12">
+        <v>0.21542900000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N195" s="12">
+        <v>7.5634999999999994E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N196" s="12">
+        <v>0.186278</v>
+      </c>
+    </row>
+    <row r="197" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N197" s="12">
+        <v>0.17700099999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N198" s="12">
+        <v>0.18504000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N199" s="12">
+        <v>0.108651</v>
+      </c>
+    </row>
+    <row r="200" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N200" s="12">
+        <v>0.14318500000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N201" s="12">
+        <v>0.186554</v>
+      </c>
+    </row>
+    <row r="202" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N202" s="12">
+        <v>0.215813</v>
+      </c>
+    </row>
+    <row r="203" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N203" s="12">
+        <v>0.26036900000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N204" s="12">
+        <v>0.17546100000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N205" s="12">
+        <v>0.103492</v>
+      </c>
+    </row>
+    <row r="206" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N206" s="12">
+        <v>0.12109200000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N207" s="12">
+        <v>0.16710900000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N208" s="12">
+        <v>0.19802400000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N209" s="12">
+        <v>0.24047099999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N210" s="12">
+        <v>0.278893</v>
+      </c>
+    </row>
+    <row r="211" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N211" s="12">
+        <v>0.116829</v>
+      </c>
+    </row>
+    <row r="212" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N212" s="12">
+        <v>7.6147999999999993E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N213" s="12">
+        <v>0.10367700000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N214" s="12">
+        <v>7.2246000000000005E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N215" s="12">
+        <v>0.107309</v>
+      </c>
+    </row>
+    <row r="216" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N216" s="12">
+        <v>0.18585399999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N217" s="12">
+        <v>0.119812</v>
+      </c>
+    </row>
+    <row r="218" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N218" s="12">
+        <v>7.8127000000000002E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N219" s="12">
+        <v>0.115083</v>
+      </c>
+    </row>
+    <row r="220" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N220" s="12">
+        <v>0.138932</v>
+      </c>
+    </row>
+    <row r="221" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N221" s="12">
+        <v>0.14096500000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N222" s="12">
+        <v>8.0855999999999997E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N223" s="12">
+        <v>0.10830099999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N224" s="12">
+        <v>0.1464</v>
+      </c>
+    </row>
+    <row r="225" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N225" s="12">
+        <v>0.18857399999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N226" s="12">
+        <v>0.13922699999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N227" s="12">
+        <v>9.8024E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N228" s="12">
+        <v>0.117392</v>
+      </c>
+    </row>
+    <row r="229" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N229" s="12">
+        <v>0.173457</v>
+      </c>
+    </row>
+    <row r="230" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N230" s="12">
+        <v>0.19189800000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N231" s="12">
+        <v>0.23291799999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N232" s="12">
+        <v>0.16708400000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N233" s="12">
+        <v>8.9467000000000005E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N234" s="12">
+        <v>0.120695</v>
+      </c>
+    </row>
+    <row r="235" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N235" s="12">
+        <v>0.163776</v>
+      </c>
+    </row>
+    <row r="236" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N236" s="12">
+        <v>0.209172</v>
+      </c>
+    </row>
+    <row r="237" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N237" s="12">
+        <v>0.1673</v>
+      </c>
+    </row>
+    <row r="238" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N238" s="12">
+        <v>0.126274</v>
+      </c>
+    </row>
+    <row r="239" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N239" s="12">
+        <v>9.9339999999999998E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N240" s="12">
+        <v>0.122847</v>
+      </c>
+    </row>
+    <row r="241" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N241" s="12">
+        <v>0.16239000000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N242" s="12">
+        <v>0.18621799999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N243" s="12">
+        <v>0.22095400000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N244" s="12">
+        <v>0.19869899999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N245" s="12">
+        <v>0.18118899999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N246" s="12">
+        <v>9.6266000000000004E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N247" s="12">
+        <v>0.11476699999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N248" s="12">
+        <v>0.15365100000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N249" s="12">
+        <v>0.188442</v>
+      </c>
+    </row>
+    <row r="250" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N250" s="12">
+        <v>0.219836</v>
+      </c>
+    </row>
+    <row r="251" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N251" s="12">
+        <v>0.12684000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N252" s="12">
+        <v>8.3052000000000001E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N253" s="12">
+        <v>0.110447</v>
+      </c>
+    </row>
+    <row r="254" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N254" s="12">
+        <v>0.14974000000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N255" s="12">
+        <v>8.7262000000000006E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N256" s="12">
+        <v>0.10649599999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N257" s="12">
+        <v>0.156058</v>
+      </c>
+    </row>
+    <row r="258" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N258" s="12">
+        <v>0.18013499999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N259" s="12">
+        <v>0.29645100000000002</v>
+      </c>
+    </row>
+    <row r="262" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N262">
+        <f>AVERAGE(N4:N259)</f>
+        <v>0.15486634765625004</v>
+      </c>
+      <c r="O262" t="e">
+        <f>AVERAGE(O4:O259)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q262" t="e">
+        <f>N262/O262</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -10595,7 +12457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5B4054-D4B9-7E4E-B2F5-ED15995E4992}">
   <dimension ref="B2:I1366"/>
   <sheetViews>
@@ -10611,7 +12473,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>102</v>
@@ -10619,7 +12481,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>52.290294000000003</v>
@@ -10627,7 +12489,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>4054</v>
@@ -10635,7 +12497,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>4000</v>
@@ -10643,7 +12505,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>54</v>
@@ -10678,10 +12540,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -11040,7 +12902,7 @@
         <v>15</v>
       </c>
       <c r="I30">
-        <f t="shared" ref="I17:I46" si="0">COUNTIF($B$13:$B$1366,1)</f>
+        <f t="shared" ref="I30:I46" si="0">COUNTIF($B$13:$B$1366,1)</f>
         <v>6</v>
       </c>
     </row>

--- a/Report/SpeedUp.xlsx
+++ b/Report/SpeedUp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhanukagamage/Dropbox/Monash University/FIT3143/Assignment 2/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06040807-35A6-7C43-B963-B4E523B94D28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4ECEA5-08FA-7343-8FB2-45C7BE593331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4740" windowWidth="28800" windowHeight="33820" activeTab="2" xr2:uid="{F3CA6A85-1115-7645-940B-AB59F541C353}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="19180" activeTab="2" xr2:uid="{F3CA6A85-1115-7645-940B-AB59F541C353}"/>
   </bookViews>
   <sheets>
     <sheet name="tt" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>Iteration</t>
   </si>
@@ -116,16 +116,16 @@
     <t>Decrypt</t>
   </si>
   <si>
-    <t>Encrypt</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Static</t>
   </si>
   <si>
-    <t>Dynamic</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Dyanamic</t>
   </si>
 </sst>
 </file>
@@ -151,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +161,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -227,6 +233,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11133,1324 +11140,1835 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761CBA4C-D172-AC47-AA23-C429FA586896}">
-  <dimension ref="D2:Q262"/>
+  <dimension ref="D2:Q259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="O259" sqref="O4:O259"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="4:17" x14ac:dyDescent="0.2">
       <c r="N2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
       </c>
       <c r="P2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="N4" s="12">
-        <v>0.14673600000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>27</v>
       </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
       <c r="L5" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="12">
-        <v>0.17605100000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="N6" s="12">
-        <v>8.0990000000000006E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="N7" s="12">
-        <v>0.116928</v>
-      </c>
-    </row>
-    <row r="8" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="N8" s="12">
-        <v>0.148148</v>
-      </c>
-    </row>
-    <row r="9" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="N9" s="12">
-        <v>0.18413199999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="N10" s="12">
-        <v>9.3810000000000004E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="N11" s="12">
-        <v>0.13236100000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="N12" s="12">
-        <v>0.16913</v>
-      </c>
-    </row>
-    <row r="13" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="N13" s="12">
-        <v>0.193632</v>
-      </c>
-    </row>
-    <row r="14" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="N14" s="12">
-        <v>0.23474100000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="N15" s="12">
-        <v>0.26896100000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="N16" s="12">
-        <v>0.161299</v>
-      </c>
-    </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N17" s="12">
-        <v>0.214277</v>
-      </c>
-    </row>
-    <row r="18" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N18" s="12">
-        <v>9.4259999999999997E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N19" s="12">
-        <v>0.13234099999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N20" s="12">
-        <v>0.166463</v>
-      </c>
-    </row>
-    <row r="21" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N21" s="12">
-        <v>0.13253799999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N22" s="12">
-        <v>8.7706999999999993E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N23" s="12">
-        <v>0.11834799999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N24" s="12">
-        <v>0.13855400000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N25" s="12">
-        <v>0.14049200000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N26" s="12">
-        <v>0.100773</v>
-      </c>
-    </row>
-    <row r="27" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N27" s="12">
-        <v>0.129576</v>
-      </c>
-    </row>
-    <row r="28" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N28" s="12">
-        <v>0.15590100000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N29" s="12">
-        <v>0.18744</v>
-      </c>
-    </row>
-    <row r="30" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N30" s="12">
-        <v>0.21379899999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N31" s="12">
-        <v>8.0102999999999994E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N32" s="12">
-        <v>9.8200999999999997E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N33" s="12">
-        <v>0.200681</v>
-      </c>
-    </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N34" s="12">
-        <v>0.20353099999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N35" s="12">
-        <v>0.26027</v>
-      </c>
-    </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N36" s="12">
-        <v>9.1297000000000003E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N37" s="12">
-        <v>0.116809</v>
-      </c>
-    </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N38" s="12">
-        <v>0.133911</v>
-      </c>
-    </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N39" s="12">
-        <v>0.176343</v>
-      </c>
-    </row>
-    <row r="40" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N40" s="12">
-        <v>0.14469799999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N41" s="12">
-        <v>0.103448</v>
-      </c>
-    </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N42" s="12">
-        <v>0.13395799999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N43" s="12">
-        <v>0.15893499999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N44" s="12">
-        <v>0.19774800000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N45" s="12">
-        <v>0.23527699999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N46" s="12">
-        <v>0.27305800000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N47" s="12">
-        <v>0.23952100000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N48" s="12">
-        <v>0.29105199999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N49" s="12">
-        <v>0.35316199999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N50" s="12">
-        <v>0.26442700000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N51" s="12">
-        <v>0.23225699999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N52" s="12">
-        <v>0.13971700000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N53" s="12">
-        <v>0.155612</v>
-      </c>
-    </row>
-    <row r="54" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N54" s="12">
-        <v>0.20535100000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N55" s="12">
-        <v>0.23816999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N56" s="12">
-        <v>0.26939400000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N57" s="12">
-        <v>7.9705999999999999E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N58" s="12">
-        <v>0.10967399999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N59" s="12">
-        <v>0.14422099999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N60" s="12">
-        <v>0.18346199999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N61" s="12">
-        <v>8.7963E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N62" s="12">
-        <v>0.121554</v>
-      </c>
-    </row>
-    <row r="63" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N63" s="12">
-        <v>0.15887200000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N64" s="12">
-        <v>0.18462799999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N65" s="12">
-        <v>0.14638699999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N66" s="12">
-        <v>0.18434800000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N67" s="12">
-        <v>9.6285999999999997E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N68" s="12">
-        <v>8.0976000000000006E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>0.47639799999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.106341</v>
+      </c>
+      <c r="P5">
+        <v>0.47480600000000001</v>
+      </c>
+      <c r="Q5">
+        <v>2.4326E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>3.2599999999999999E-3</v>
+      </c>
+      <c r="F6">
+        <v>1.6609999999999999E-3</v>
+      </c>
+      <c r="G6">
+        <v>1.0549999999999999E-3</v>
+      </c>
+      <c r="N6">
+        <v>0.15037400000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.11661100000000001</v>
+      </c>
+      <c r="P6">
+        <v>0.39076499999999997</v>
+      </c>
+      <c r="Q6">
+        <v>2.3328000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>1.2960000000000001E-3</v>
+      </c>
+      <c r="F7">
+        <v>1.013E-3</v>
+      </c>
+      <c r="G7">
+        <v>1.575E-3</v>
+      </c>
+      <c r="N7">
+        <v>0.13147600000000001</v>
+      </c>
+      <c r="O7">
+        <v>3.0931E-2</v>
+      </c>
+      <c r="P7">
+        <v>0.20960400000000001</v>
+      </c>
+      <c r="Q7">
+        <v>4.2486000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>1.9100000000000001E-4</v>
+      </c>
+      <c r="F8">
+        <v>9.3800000000000003E-4</v>
+      </c>
+      <c r="G8">
+        <v>5.5420000000000001E-3</v>
+      </c>
+      <c r="N8">
+        <v>0.17432900000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.41387400000000002</v>
+      </c>
+      <c r="P8">
+        <v>4.2271999999999997E-2</v>
+      </c>
+      <c r="Q8">
+        <v>2.7385E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>7.2900000000000005E-4</v>
+      </c>
+      <c r="F9">
+        <v>9.3700000000000001E-4</v>
+      </c>
+      <c r="G9">
+        <v>1.2719999999999999E-3</v>
+      </c>
+      <c r="N9">
+        <v>0.107527</v>
+      </c>
+      <c r="O9">
+        <v>0.31712800000000002</v>
+      </c>
+      <c r="P9">
+        <v>4.1861000000000002E-2</v>
+      </c>
+      <c r="Q9">
+        <v>7.5443999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>5.4029999999999998E-3</v>
+      </c>
+      <c r="F10">
+        <v>1.3270000000000001E-3</v>
+      </c>
+      <c r="G10">
+        <v>1.603E-3</v>
+      </c>
+      <c r="N10">
+        <v>0.14702000000000001</v>
+      </c>
+      <c r="O10">
+        <v>3.1766999999999997E-2</v>
+      </c>
+      <c r="P10">
+        <v>0.15099000000000001</v>
+      </c>
+      <c r="Q10">
+        <v>4.8530999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>5.2129999999999998E-3</v>
+      </c>
+      <c r="F11">
+        <v>1.9380000000000001E-3</v>
+      </c>
+      <c r="G11">
+        <v>5.9230000000000003E-3</v>
+      </c>
+      <c r="N11">
+        <v>0.189972</v>
+      </c>
+      <c r="O11">
+        <v>2.4291E-2</v>
+      </c>
+      <c r="P11">
+        <v>0.141073</v>
+      </c>
+      <c r="Q11">
+        <v>4.8611000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>5.5589999999999997E-3</v>
+      </c>
+      <c r="F12">
+        <v>4.8869999999999999E-3</v>
+      </c>
+      <c r="G12">
+        <v>6.1960000000000001E-3</v>
+      </c>
+      <c r="N12">
+        <v>0.22104599999999999</v>
+      </c>
+      <c r="O12">
+        <v>5.4817999999999999E-2</v>
+      </c>
+      <c r="P12">
+        <v>8.1114000000000006E-2</v>
+      </c>
+      <c r="Q12">
+        <v>2.9513000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>5.489E-3</v>
+      </c>
+      <c r="F13">
+        <v>4.7730000000000003E-3</v>
+      </c>
+      <c r="G13">
+        <v>4.7739999999999996E-3</v>
+      </c>
+      <c r="N13">
+        <v>0.23948</v>
+      </c>
+      <c r="O13">
+        <v>0.36419099999999999</v>
+      </c>
+      <c r="P13">
+        <v>4.4026999999999997E-2</v>
+      </c>
+      <c r="Q13">
+        <v>0.14466799999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>5.7910000000000001E-3</v>
+      </c>
+      <c r="F14">
+        <v>1.495E-3</v>
+      </c>
+      <c r="G14">
+        <v>1.2130000000000001E-3</v>
+      </c>
+      <c r="N14">
+        <v>0.19570499999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.39583200000000002</v>
+      </c>
+      <c r="P14">
+        <v>0.43923899999999999</v>
+      </c>
+      <c r="Q14">
+        <v>8.5402000000000006E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>7.4700000000000005E-4</v>
+      </c>
+      <c r="F15">
+        <v>1.923E-3</v>
+      </c>
+      <c r="G15">
+        <v>1.181E-3</v>
+      </c>
+      <c r="N15">
+        <v>8.0664E-2</v>
+      </c>
+      <c r="O15">
+        <v>8.8943999999999995E-2</v>
+      </c>
+      <c r="P15">
+        <v>0.33493000000000001</v>
+      </c>
+      <c r="Q15">
+        <v>3.7969000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>1.4319999999999999E-3</v>
+      </c>
+      <c r="F16">
+        <v>5.8820000000000001E-3</v>
+      </c>
+      <c r="G16">
+        <v>4.9630000000000004E-3</v>
+      </c>
+      <c r="N16">
+        <v>0.11625000000000001</v>
+      </c>
+      <c r="O16">
+        <v>4.1570000000000003E-2</v>
+      </c>
+      <c r="P16">
+        <v>0.345223</v>
+      </c>
+      <c r="Q16">
+        <v>6.2911999999999996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>1.9710000000000001E-3</v>
+      </c>
+      <c r="F17">
+        <v>6.8400000000000004E-4</v>
+      </c>
+      <c r="G17">
+        <v>4.5009999999999998E-3</v>
+      </c>
+      <c r="N17">
+        <v>0.15903500000000001</v>
+      </c>
+      <c r="O17">
+        <v>4.4405E-2</v>
+      </c>
+      <c r="P17">
+        <v>3.2614999999999998E-2</v>
+      </c>
+      <c r="Q17">
+        <v>4.8287999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>2.2309999999999999E-3</v>
+      </c>
+      <c r="F18">
+        <v>1.1100000000000001E-3</v>
+      </c>
+      <c r="G18">
+        <v>4.3600000000000003E-4</v>
+      </c>
+      <c r="N18">
+        <v>9.7361000000000003E-2</v>
+      </c>
+      <c r="O18">
+        <v>0.21842600000000001</v>
+      </c>
+      <c r="P18">
+        <v>7.6761999999999997E-2</v>
+      </c>
+      <c r="Q18">
+        <v>5.6764000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>1.596E-3</v>
+      </c>
+      <c r="F19">
+        <v>5.0720000000000001E-3</v>
+      </c>
+      <c r="G19">
+        <v>7.9600000000000005E-4</v>
+      </c>
+      <c r="N19">
+        <v>0.11755500000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.49189100000000002</v>
+      </c>
+      <c r="P19">
+        <v>6.6816E-2</v>
+      </c>
+      <c r="Q19">
+        <v>0.183757</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>4.8299999999999998E-4</v>
+      </c>
+      <c r="F20">
+        <v>1.1310000000000001E-3</v>
+      </c>
+      <c r="G20">
+        <v>2.2290000000000001E-3</v>
+      </c>
+      <c r="N20">
+        <v>0.15825700000000001</v>
+      </c>
+      <c r="O20">
+        <v>7.7378000000000002E-2</v>
+      </c>
+      <c r="P20">
+        <v>0.100257</v>
+      </c>
+      <c r="Q20">
+        <v>6.2644000000000005E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>7.7899999999999996E-4</v>
+      </c>
+      <c r="F21">
+        <v>1.444E-3</v>
+      </c>
+      <c r="G21">
+        <v>2.4559999999999998E-3</v>
+      </c>
+      <c r="N21">
+        <v>0.18948899999999999</v>
+      </c>
+      <c r="O21">
+        <v>6.8402000000000004E-2</v>
+      </c>
+      <c r="P21">
+        <v>4.3385E-2</v>
+      </c>
+      <c r="Q21">
+        <v>4.0001000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>2.0660000000000001E-3</v>
+      </c>
+      <c r="F22">
+        <v>1.6620000000000001E-3</v>
+      </c>
+      <c r="G22">
+        <v>2.7100000000000002E-3</v>
+      </c>
+      <c r="N22">
+        <v>0.22779199999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.288545</v>
+      </c>
+      <c r="P22">
+        <v>7.8928999999999999E-2</v>
+      </c>
+      <c r="Q22">
+        <v>4.4734999999999997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>2.297E-3</v>
+      </c>
+      <c r="F23">
+        <v>1.3259999999999999E-3</v>
+      </c>
+      <c r="G23">
+        <v>3.467E-3</v>
+      </c>
+      <c r="N23">
+        <v>0.15493999999999999</v>
+      </c>
+      <c r="O23">
+        <v>5.9197E-2</v>
+      </c>
+      <c r="P23">
+        <v>0.102701</v>
+      </c>
+      <c r="Q23">
+        <v>3.8958E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>2.3E-3</v>
+      </c>
+      <c r="F24">
+        <v>1.4989999999999999E-3</v>
+      </c>
+      <c r="G24">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="N24">
+        <v>9.2272000000000007E-2</v>
+      </c>
+      <c r="O24">
+        <v>5.4371999999999997E-2</v>
+      </c>
+      <c r="P24">
+        <v>0.221806</v>
+      </c>
+      <c r="Q24">
+        <v>4.9216999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>2.0349999999999999E-3</v>
+      </c>
+      <c r="F25">
+        <v>1.9910000000000001E-3</v>
+      </c>
+      <c r="G25">
+        <v>2.3779999999999999E-3</v>
+      </c>
+      <c r="N25">
+        <v>0.12631500000000001</v>
+      </c>
+      <c r="O25">
+        <v>3.712E-2</v>
+      </c>
+      <c r="P25">
+        <v>0.12209</v>
+      </c>
+      <c r="Q25">
+        <v>0.15012300000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>5.2400000000000005E-4</v>
+      </c>
+      <c r="F26">
+        <v>2.039E-3</v>
+      </c>
+      <c r="G26">
+        <v>7.1100000000000004E-4</v>
+      </c>
+      <c r="N26">
+        <v>0.16534199999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.16306799999999999</v>
+      </c>
+      <c r="P26">
+        <v>0.14084199999999999</v>
+      </c>
+      <c r="Q26">
+        <v>0.23197400000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>7.7099999999999998E-4</v>
+      </c>
+      <c r="F27">
+        <v>2.225E-3</v>
+      </c>
+      <c r="G27">
+        <v>6.4199999999999999E-4</v>
+      </c>
+      <c r="N27">
+        <v>0.193276</v>
+      </c>
+      <c r="O27">
+        <v>0.12592300000000001</v>
+      </c>
+      <c r="P27">
+        <v>0.119157</v>
+      </c>
+      <c r="Q27">
+        <v>9.1670000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>9.9599999999999992E-4</v>
+      </c>
+      <c r="F28">
+        <v>9.5600000000000004E-4</v>
+      </c>
+      <c r="G28">
+        <v>1.034E-3</v>
+      </c>
+      <c r="N28">
+        <v>0.18857499999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.43074600000000002</v>
+      </c>
+      <c r="P28">
+        <v>7.2326000000000001E-2</v>
+      </c>
+      <c r="Q28">
+        <v>9.5481999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>8.2399999999999997E-4</v>
+      </c>
+      <c r="F29">
+        <v>8.0900000000000004E-4</v>
+      </c>
+      <c r="G29">
+        <v>1.3450000000000001E-3</v>
+      </c>
+      <c r="N29">
+        <v>0.230459</v>
+      </c>
+      <c r="O29">
+        <v>0.14544000000000001</v>
+      </c>
+      <c r="P29">
+        <v>4.5026999999999998E-2</v>
+      </c>
+      <c r="Q29">
+        <v>7.2499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>6.8400000000000004E-4</v>
+      </c>
+      <c r="F30">
+        <v>8.0599999999999997E-4</v>
+      </c>
+      <c r="G30">
+        <v>1.689E-3</v>
+      </c>
+      <c r="N30">
+        <v>0.17067599999999999</v>
+      </c>
+      <c r="O30">
+        <v>8.5309999999999997E-2</v>
+      </c>
+      <c r="P30">
+        <v>6.6641000000000006E-2</v>
+      </c>
+      <c r="Q30">
+        <v>2.7474999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>5.62E-4</v>
+      </c>
+      <c r="F31">
+        <v>1.7080000000000001E-3</v>
+      </c>
+      <c r="G31">
+        <v>4.6099999999999998E-4</v>
+      </c>
+      <c r="N31">
+        <v>0.20860799999999999</v>
+      </c>
+      <c r="O31">
+        <v>7.8364000000000003E-2</v>
+      </c>
+      <c r="P31">
+        <v>0.23894299999999999</v>
+      </c>
+      <c r="Q31">
+        <v>0.11612</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>7.5299999999999998E-4</v>
+      </c>
+      <c r="F32">
+        <v>2.0270000000000002E-3</v>
+      </c>
+      <c r="G32">
+        <v>1.64E-4</v>
+      </c>
+      <c r="N32">
+        <v>9.8833000000000004E-2</v>
+      </c>
+      <c r="O32">
+        <v>0.11115800000000001</v>
+      </c>
+      <c r="P32">
+        <v>0.12617</v>
+      </c>
+      <c r="Q32">
+        <v>0.101627</v>
+      </c>
+    </row>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>5.7559999999999998E-3</v>
+      </c>
+      <c r="F33">
+        <v>2.186E-3</v>
+      </c>
+      <c r="G33">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="N33">
+        <v>0.11833399999999999</v>
+      </c>
+      <c r="O33">
+        <v>4.5134000000000001E-2</v>
+      </c>
+      <c r="P33">
+        <v>0.127162</v>
+      </c>
+      <c r="Q33">
+        <v>5.0458000000000003E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>5.9680000000000002E-3</v>
+      </c>
+      <c r="F34">
+        <v>2.415E-3</v>
+      </c>
+      <c r="G34">
+        <v>1.3619999999999999E-3</v>
+      </c>
+      <c r="N34">
+        <v>0.14691100000000001</v>
+      </c>
+      <c r="O34">
+        <v>7.3898000000000005E-2</v>
+      </c>
+      <c r="P34">
+        <v>0.23266899999999999</v>
+      </c>
+      <c r="Q34">
+        <v>3.8975000000000003E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>6.2989999999999999E-3</v>
+      </c>
+      <c r="F35">
+        <v>8.0400000000000003E-4</v>
+      </c>
+      <c r="G35">
+        <v>4.7100000000000001E-4</v>
+      </c>
+      <c r="N35">
+        <v>7.1115999999999999E-2</v>
+      </c>
+      <c r="O35">
+        <v>8.9324000000000001E-2</v>
+      </c>
+      <c r="P35">
+        <v>2.7361E-2</v>
+      </c>
+      <c r="Q35">
+        <v>9.7587999999999994E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>5.8719999999999996E-3</v>
+      </c>
+      <c r="F36">
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="G36">
+        <v>6.7699999999999998E-4</v>
+      </c>
+      <c r="N36">
+        <v>0.16758500000000001</v>
+      </c>
+      <c r="O36">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="P36">
+        <v>5.2395999999999998E-2</v>
+      </c>
+      <c r="Q36">
+        <v>5.8737999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>6.1720000000000004E-3</v>
+      </c>
+      <c r="F37">
+        <v>5.8960000000000002E-3</v>
+      </c>
+      <c r="G37">
+        <v>7.8600000000000002E-4</v>
+      </c>
+      <c r="N37">
+        <v>0.21455399999999999</v>
+      </c>
+      <c r="O37">
+        <v>7.8313999999999995E-2</v>
+      </c>
+      <c r="P37">
+        <v>6.0498000000000003E-2</v>
+      </c>
+      <c r="Q37">
+        <v>8.4185999999999997E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>1.6100000000000001E-4</v>
+      </c>
+      <c r="F38">
+        <v>6.2620000000000002E-3</v>
+      </c>
+      <c r="G38">
+        <v>1.0120000000000001E-3</v>
+      </c>
+      <c r="N38">
+        <v>0.17987700000000001</v>
+      </c>
+      <c r="O38">
+        <v>5.0280999999999999E-2</v>
+      </c>
+      <c r="P38">
+        <v>2.9949E-2</v>
+      </c>
+      <c r="Q38">
+        <v>0.100733</v>
+      </c>
+    </row>
+    <row r="39" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>1.9799999999999999E-4</v>
+      </c>
+      <c r="F39">
+        <v>6.5459999999999997E-3</v>
+      </c>
+      <c r="G39">
+        <v>5.313E-3</v>
+      </c>
+      <c r="N39">
+        <v>0.100268</v>
+      </c>
+      <c r="O39">
+        <v>0.160054</v>
+      </c>
+      <c r="P39">
+        <v>3.5247000000000001E-2</v>
+      </c>
+      <c r="Q39">
+        <v>7.1958999999999995E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>1.01E-4</v>
+      </c>
+      <c r="F40">
+        <v>6.7930000000000004E-3</v>
+      </c>
+      <c r="G40">
+        <v>5.0010000000000002E-3</v>
+      </c>
+      <c r="N40">
+        <v>0.132715</v>
+      </c>
+      <c r="O40">
+        <v>3.4009999999999999E-2</v>
+      </c>
+      <c r="P40">
+        <v>0.27598499999999998</v>
+      </c>
+      <c r="Q40">
+        <v>3.3683999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>3.1E-4</v>
+      </c>
+      <c r="F41">
+        <v>1.0430000000000001E-3</v>
+      </c>
+      <c r="G41">
+        <v>4.8510000000000003E-3</v>
+      </c>
+      <c r="N41">
+        <v>0.15223200000000001</v>
+      </c>
+      <c r="O41">
+        <v>3.5165000000000002E-2</v>
+      </c>
+      <c r="P41">
+        <v>3.2929E-2</v>
+      </c>
+      <c r="Q41">
+        <v>0.23037099999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>8.5099999999999998E-4</v>
+      </c>
+      <c r="F42">
+        <v>8.5300000000000003E-4</v>
+      </c>
+      <c r="G42">
+        <v>6.96E-4</v>
+      </c>
+      <c r="N42">
+        <v>0.19364300000000001</v>
+      </c>
+      <c r="O42">
+        <v>0.48466399999999998</v>
+      </c>
+      <c r="P42">
+        <v>6.1310999999999997E-2</v>
+      </c>
+      <c r="Q42">
+        <v>0.128859</v>
+      </c>
+    </row>
+    <row r="43" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>4.8899999999999996E-4</v>
+      </c>
+      <c r="F43">
+        <v>4.2940000000000001E-3</v>
+      </c>
+      <c r="G43">
+        <v>1.124E-3</v>
+      </c>
+      <c r="N43">
+        <v>0.213948</v>
+      </c>
+      <c r="O43">
+        <v>3.7637999999999998E-2</v>
+      </c>
+      <c r="P43">
+        <v>8.7995000000000004E-2</v>
+      </c>
+      <c r="Q43">
+        <v>0.18535199999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>4.8520000000000004E-3</v>
+      </c>
+      <c r="F44">
+        <v>5.4079999999999996E-3</v>
+      </c>
+      <c r="N44">
+        <v>0.10768900000000001</v>
+      </c>
+      <c r="O44">
+        <v>4.4455000000000001E-2</v>
+      </c>
+      <c r="P44">
+        <v>4.3871E-2</v>
+      </c>
+      <c r="Q44">
+        <v>0.136488</v>
+      </c>
+    </row>
+    <row r="45" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>5.2830000000000004E-3</v>
+      </c>
+      <c r="F45">
+        <v>5.1570000000000001E-3</v>
+      </c>
+      <c r="N45">
+        <v>0.15189</v>
+      </c>
+      <c r="O45">
+        <v>5.2301E-2</v>
+      </c>
+      <c r="P45">
+        <v>0.148342</v>
+      </c>
+      <c r="Q45">
+        <v>5.8845000000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>5.3899999999999998E-3</v>
+      </c>
+      <c r="F46">
+        <v>6.0520000000000001E-3</v>
+      </c>
+      <c r="N46">
+        <v>0.179538</v>
+      </c>
+      <c r="O46">
+        <v>2.5742999999999999E-2</v>
+      </c>
+      <c r="P46">
+        <v>7.7296000000000004E-2</v>
+      </c>
+      <c r="Q46">
+        <v>5.4468999999999997E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>1.1039999999999999E-3</v>
+      </c>
+      <c r="N47">
+        <v>0.24245800000000001</v>
+      </c>
+      <c r="O47">
+        <v>0.25776900000000003</v>
+      </c>
+      <c r="P47">
+        <v>6.1961000000000002E-2</v>
+      </c>
+      <c r="Q47">
+        <v>7.5442999999999996E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>6.8599999999999998E-4</v>
+      </c>
+      <c r="N48">
+        <v>0.28726600000000002</v>
+      </c>
+      <c r="O48">
+        <v>0.166127</v>
+      </c>
+      <c r="P48">
+        <v>4.1339000000000001E-2</v>
+      </c>
+      <c r="Q48">
+        <v>6.2049E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>5.4190000000000002E-3</v>
+      </c>
+      <c r="N49">
+        <v>0.33682400000000001</v>
+      </c>
+      <c r="O49">
+        <v>0.149143</v>
+      </c>
+      <c r="P49">
+        <v>0.16755600000000001</v>
+      </c>
+      <c r="Q49">
+        <v>0.33216099999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>5.7629999999999999E-3</v>
+      </c>
+      <c r="F50">
+        <f>AVERAGE(F6:F46)</f>
+        <v>2.6300487804878049E-3</v>
+      </c>
+      <c r="G50">
+        <f>AVERAGE(G6:G43)</f>
+        <v>2.204210526315789E-3</v>
+      </c>
+      <c r="N50">
+        <v>0.54485600000000001</v>
+      </c>
+      <c r="O50">
+        <v>0.154781</v>
+      </c>
+      <c r="P50">
+        <v>5.0146000000000003E-2</v>
+      </c>
+      <c r="Q50">
+        <v>0.13633999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>6.0679999999999996E-3</v>
+      </c>
+      <c r="N51">
+        <v>0.55342599999999997</v>
+      </c>
+      <c r="O51">
+        <v>5.9240000000000001E-2</v>
+      </c>
+      <c r="P51">
+        <v>3.0227E-2</v>
+      </c>
+      <c r="Q51">
+        <v>0.14674599999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>6.5929999999999999E-3</v>
+      </c>
+      <c r="N52">
+        <v>0.72428700000000001</v>
+      </c>
+      <c r="O52">
+        <v>3.6080000000000001E-2</v>
+      </c>
+      <c r="P52">
+        <v>3.0685E-2</v>
+      </c>
+      <c r="Q52">
+        <v>0.326067</v>
+      </c>
+    </row>
+    <row r="53" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>6.4799999999999996E-3</v>
+      </c>
+      <c r="N53">
+        <v>0.51015600000000005</v>
+      </c>
+      <c r="O53">
+        <v>0.28191899999999998</v>
+      </c>
+      <c r="P53">
+        <v>0.332731</v>
+      </c>
+      <c r="Q53">
+        <v>0.32636700000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>5.973E-3</v>
+      </c>
+      <c r="N54">
+        <v>0.70453500000000002</v>
+      </c>
+      <c r="O54">
+        <v>0.153336</v>
+      </c>
+      <c r="P54">
+        <v>0.14426600000000001</v>
+      </c>
+      <c r="Q54">
+        <v>0.17612900000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>6.3889999999999997E-3</v>
+      </c>
+      <c r="E55">
+        <f>D58/F50</f>
+        <v>1.153098720013267</v>
+      </c>
+      <c r="F55">
+        <f>D58/G50</f>
+        <v>1.3758694308669031</v>
+      </c>
+      <c r="N55">
+        <v>1.0237499999999999</v>
+      </c>
+      <c r="O55">
+        <v>0.29408600000000001</v>
+      </c>
+      <c r="P55">
+        <v>0.37885000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>6.509E-3</v>
+      </c>
+      <c r="N56">
+        <v>0.81446499999999999</v>
+      </c>
+      <c r="O56">
+        <v>0.210975</v>
+      </c>
+      <c r="P56">
+        <v>0.157332</v>
+      </c>
+    </row>
+    <row r="57" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="N57">
+        <v>0.90463800000000005</v>
+      </c>
+      <c r="O57">
+        <v>0.349026</v>
+      </c>
+      <c r="P57">
+        <v>8.7899000000000005E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <f>AVERAGE(D6:D56)</f>
+        <v>3.0327058823529413E-3</v>
+      </c>
+      <c r="N58">
+        <v>0.96667199999999998</v>
+      </c>
+      <c r="P58">
+        <v>6.4811999999999995E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="N59" s="12"/>
+      <c r="P59">
+        <v>6.3898999999999997E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="N60" s="12"/>
+      <c r="P60">
+        <v>0.46150600000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="N61" s="12"/>
+      <c r="P61">
+        <v>0.33319199999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="N62" s="12"/>
+      <c r="P62">
+        <v>0.195109</v>
+      </c>
+    </row>
+    <row r="63" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="N63" s="12"/>
+      <c r="P63">
+        <v>0.22553400000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="N64" s="12"/>
+    </row>
+    <row r="65" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N65" s="12"/>
+    </row>
+    <row r="66" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N66" s="12"/>
+    </row>
+    <row r="67" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N67" s="12"/>
+    </row>
+    <row r="68" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N68" s="12"/>
+    </row>
+    <row r="69" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N69" s="12">
-        <v>0.14210400000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N70" s="12">
-        <v>0.19331200000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N71" s="12">
-        <v>8.8705000000000006E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N72" s="12">
-        <v>0.12617900000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N73" s="12">
-        <v>0.14815600000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N74" s="12">
-        <v>0.17846400000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N75" s="12">
-        <v>0.14041500000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N76" s="12">
-        <v>9.7902000000000003E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N77" s="12">
-        <v>0.12712799999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N78" s="12">
-        <v>0.15442800000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N79" s="12">
-        <v>0.210924</v>
-      </c>
-    </row>
-    <row r="80" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N80" s="12">
-        <v>0.21221999999999999</v>
-      </c>
+        <f>AVERAGE(N5:N58)</f>
+        <v>0.26949368518518518</v>
+      </c>
+      <c r="O69" s="12">
+        <f>AVERAGE(O5:O57)</f>
+        <v>0.14825860377358491</v>
+      </c>
+      <c r="P69">
+        <f>AVERAGE(P5:P63)</f>
+        <v>0.14356654237288138</v>
+      </c>
+      <c r="Q69">
+        <f>AVERAGE(Q5:Q54)</f>
+        <v>9.9478340000000026E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N70" s="12"/>
+    </row>
+    <row r="71" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N71" s="12"/>
+      <c r="O71">
+        <f t="shared" ref="O71:P71" si="0">$N$69/O69</f>
+        <v>1.8177271222434148</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="0"/>
+        <v>1.8771343290084728</v>
+      </c>
+      <c r="Q71" s="13">
+        <f>$N$69/Q69</f>
+        <v>2.7090689810986501</v>
+      </c>
+    </row>
+    <row r="72" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N72" s="12"/>
+    </row>
+    <row r="73" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N73" s="12"/>
+    </row>
+    <row r="74" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N74" s="12"/>
+    </row>
+    <row r="75" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N75" s="12"/>
+    </row>
+    <row r="76" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N76" s="12"/>
+    </row>
+    <row r="77" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N77" s="12"/>
+    </row>
+    <row r="78" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N78" s="12"/>
+    </row>
+    <row r="79" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N79" s="12"/>
+    </row>
+    <row r="80" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N80" s="12"/>
     </row>
     <row r="81" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N81" s="12">
-        <v>9.2841999999999994E-2</v>
-      </c>
+      <c r="N81" s="12"/>
     </row>
     <row r="82" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N82" s="12">
-        <v>0.133746</v>
-      </c>
+      <c r="N82" s="12"/>
     </row>
     <row r="83" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N83" s="12">
-        <v>0.16477600000000001</v>
-      </c>
+      <c r="N83" s="12"/>
     </row>
     <row r="84" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N84" s="12">
-        <v>0.21695400000000001</v>
-      </c>
+      <c r="N84" s="12"/>
     </row>
     <row r="85" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N85" s="12">
-        <v>7.6924999999999993E-2</v>
-      </c>
+      <c r="N85" s="12"/>
     </row>
     <row r="86" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N86" s="12">
-        <v>0.112708</v>
-      </c>
+      <c r="N86" s="12"/>
     </row>
     <row r="87" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N87" s="12">
-        <v>0.142785</v>
-      </c>
+      <c r="N87" s="12"/>
     </row>
     <row r="88" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N88" s="12">
-        <v>0.16697300000000001</v>
-      </c>
+      <c r="N88" s="12"/>
     </row>
     <row r="89" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N89" s="12">
-        <v>0.16750200000000001</v>
-      </c>
+      <c r="N89" s="12"/>
     </row>
     <row r="90" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N90" s="12">
-        <v>9.9338999999999997E-2</v>
-      </c>
+      <c r="N90" s="12"/>
     </row>
     <row r="91" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N91" s="12">
-        <v>0.132491</v>
-      </c>
+      <c r="N91" s="12"/>
     </row>
     <row r="92" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N92" s="12">
-        <v>0.17307400000000001</v>
-      </c>
+      <c r="N92" s="12"/>
     </row>
     <row r="93" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N93" s="12">
-        <v>0.20874400000000001</v>
-      </c>
+      <c r="N93" s="12"/>
     </row>
     <row r="94" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N94" s="12">
-        <v>0.237035</v>
-      </c>
+      <c r="N94" s="12"/>
     </row>
     <row r="95" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N95" s="12">
-        <v>0.24449799999999999</v>
-      </c>
+      <c r="N95" s="12"/>
     </row>
     <row r="96" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N96" s="12">
-        <v>0.27540900000000001</v>
-      </c>
+      <c r="N96" s="12"/>
     </row>
     <row r="97" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N97" s="12">
-        <v>0.13208300000000001</v>
-      </c>
+      <c r="N97" s="12"/>
     </row>
     <row r="98" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N98" s="12">
-        <v>0.10957799999999999</v>
-      </c>
+      <c r="N98" s="12"/>
     </row>
     <row r="99" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N99" s="12">
-        <v>0.123755</v>
-      </c>
+      <c r="N99" s="12"/>
     </row>
     <row r="100" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N100" s="12">
-        <v>0.15768299999999999</v>
-      </c>
+      <c r="N100" s="12"/>
     </row>
     <row r="101" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N101" s="12">
-        <v>0.19952600000000001</v>
-      </c>
+      <c r="N101" s="12"/>
     </row>
     <row r="102" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N102" s="12">
-        <v>0.243702</v>
-      </c>
+      <c r="N102" s="12"/>
     </row>
     <row r="103" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N103" s="12">
-        <v>0.22956299999999999</v>
-      </c>
+      <c r="N103" s="12"/>
     </row>
     <row r="104" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N104" s="12">
-        <v>8.3224000000000006E-2</v>
-      </c>
+      <c r="N104" s="12"/>
     </row>
     <row r="105" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N105" s="12">
-        <v>0.11391900000000001</v>
-      </c>
+      <c r="N105" s="12"/>
     </row>
     <row r="106" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N106" s="12">
-        <v>0.146647</v>
-      </c>
+      <c r="N106" s="12"/>
     </row>
     <row r="107" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N107" s="12">
-        <v>0.201129</v>
-      </c>
+      <c r="N107" s="12"/>
     </row>
     <row r="108" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N108" s="12">
-        <v>8.4296999999999997E-2</v>
-      </c>
+      <c r="N108" s="12"/>
     </row>
     <row r="109" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N109" s="12">
-        <v>0.113079</v>
-      </c>
+      <c r="N109" s="12"/>
     </row>
     <row r="110" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N110" s="12">
-        <v>0.141014</v>
-      </c>
+      <c r="N110" s="12"/>
     </row>
     <row r="111" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N111" s="12">
-        <v>0.17657900000000001</v>
-      </c>
+      <c r="N111" s="12"/>
     </row>
     <row r="112" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N112" s="12">
-        <v>8.4872000000000003E-2</v>
-      </c>
+      <c r="N112" s="12"/>
     </row>
     <row r="113" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N113" s="12">
-        <v>0.11937300000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N114" s="12">
-        <v>0.137484</v>
-      </c>
+      <c r="N113" s="12"/>
     </row>
     <row r="115" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N115" s="12">
-        <v>0.1391</v>
-      </c>
+      <c r="N115" s="12"/>
     </row>
     <row r="116" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N116" s="12">
-        <v>7.5606999999999994E-2</v>
-      </c>
+      <c r="N116" s="12"/>
     </row>
     <row r="117" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N117" s="12">
-        <v>0.114331</v>
-      </c>
+      <c r="N117" s="12"/>
     </row>
     <row r="118" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N118" s="12">
-        <v>0.13077900000000001</v>
-      </c>
+      <c r="N118" s="12"/>
     </row>
     <row r="119" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N119" s="12">
-        <v>0.17937600000000001</v>
-      </c>
+      <c r="N119" s="12"/>
     </row>
     <row r="120" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N120" s="12">
-        <v>7.2763999999999995E-2</v>
-      </c>
+      <c r="N120" s="12"/>
     </row>
     <row r="121" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N121" s="12">
-        <v>0.10671</v>
-      </c>
+      <c r="N121" s="12"/>
     </row>
     <row r="122" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N122" s="12">
-        <v>0.215642</v>
-      </c>
+      <c r="N122" s="12"/>
     </row>
     <row r="123" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N123" s="12">
-        <v>0.176954</v>
-      </c>
+      <c r="N123" s="12"/>
     </row>
     <row r="124" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N124" s="12">
-        <v>0.22273000000000001</v>
-      </c>
+      <c r="N124" s="12"/>
     </row>
     <row r="125" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N125" s="12">
-        <v>0.190997</v>
-      </c>
+      <c r="N125" s="12"/>
     </row>
     <row r="126" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N126" s="12">
-        <v>8.6527000000000007E-2</v>
-      </c>
+      <c r="N126" s="12"/>
     </row>
     <row r="127" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N127" s="12">
-        <v>0.117312</v>
-      </c>
+      <c r="N127" s="12"/>
     </row>
     <row r="128" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N128" s="12">
-        <v>0.15317900000000001</v>
-      </c>
+      <c r="N128" s="12"/>
     </row>
     <row r="129" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N129" s="12">
-        <v>0.13506699999999999</v>
-      </c>
+      <c r="N129" s="12"/>
     </row>
     <row r="130" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N130" s="12">
-        <v>8.3795999999999995E-2</v>
-      </c>
+      <c r="N130" s="12"/>
     </row>
     <row r="131" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N131" s="12">
-        <v>0.101851</v>
-      </c>
+      <c r="N131" s="12"/>
     </row>
     <row r="132" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N132" s="12">
-        <v>0.137296</v>
-      </c>
+      <c r="N132" s="12"/>
     </row>
     <row r="133" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N133" s="12">
-        <v>0.17591699999999999</v>
-      </c>
+      <c r="N133" s="12"/>
     </row>
     <row r="134" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N134" s="12">
-        <v>0.162745</v>
-      </c>
+      <c r="N134" s="12"/>
     </row>
     <row r="135" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N135" s="12">
-        <v>0.1575</v>
-      </c>
+      <c r="N135" s="12"/>
     </row>
     <row r="136" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N136" s="12">
-        <v>0.108282</v>
-      </c>
+      <c r="N136" s="12"/>
     </row>
     <row r="137" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N137" s="12">
-        <v>0.12284399999999999</v>
-      </c>
+      <c r="N137" s="12"/>
     </row>
     <row r="138" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N138" s="12">
-        <v>0.16129099999999999</v>
-      </c>
+      <c r="N138" s="12"/>
     </row>
     <row r="139" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N139" s="12">
-        <v>0.19345799999999999</v>
-      </c>
+      <c r="N139" s="12"/>
     </row>
     <row r="140" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N140" s="12">
-        <v>0.237266</v>
-      </c>
+      <c r="N140" s="12"/>
     </row>
     <row r="141" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N141" s="12">
-        <v>0.26594499999999999</v>
-      </c>
+      <c r="N141" s="12"/>
     </row>
     <row r="142" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N142" s="12">
-        <v>0.189333</v>
-      </c>
+      <c r="N142" s="12"/>
     </row>
     <row r="143" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N143" s="12">
-        <v>7.4684E-2</v>
-      </c>
+      <c r="N143" s="12"/>
     </row>
     <row r="144" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N144" s="12">
-        <v>0.102952</v>
-      </c>
+      <c r="N144" s="12"/>
     </row>
     <row r="145" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N145" s="12">
-        <v>0.14968699999999999</v>
-      </c>
+      <c r="N145" s="12"/>
     </row>
     <row r="146" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N146" s="12">
-        <v>0.185303</v>
-      </c>
+      <c r="N146" s="12"/>
     </row>
     <row r="147" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N147" s="12">
-        <v>0.18665699999999999</v>
-      </c>
+      <c r="N147" s="12"/>
     </row>
     <row r="148" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N148" s="12">
-        <v>8.6192000000000005E-2</v>
-      </c>
+      <c r="N148" s="12"/>
     </row>
     <row r="149" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N149" s="12">
-        <v>0.108518</v>
-      </c>
+      <c r="N149" s="12"/>
     </row>
     <row r="150" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N150" s="12">
-        <v>0.15182799999999999</v>
-      </c>
+      <c r="N150" s="12"/>
     </row>
     <row r="151" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N151" s="12">
-        <v>0.16739200000000001</v>
-      </c>
+      <c r="N151" s="12"/>
     </row>
     <row r="152" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N152" s="12">
-        <v>0.19772300000000001</v>
-      </c>
+      <c r="N152" s="12"/>
     </row>
     <row r="153" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N153" s="12">
-        <v>0.19605800000000001</v>
-      </c>
+      <c r="N153" s="12"/>
     </row>
     <row r="154" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N154" s="12">
-        <v>0.25911800000000001</v>
-      </c>
+      <c r="N154" s="12"/>
     </row>
     <row r="155" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N155" s="12">
-        <v>8.1606999999999999E-2</v>
-      </c>
+      <c r="N155" s="12"/>
     </row>
     <row r="156" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N156" s="12">
-        <v>0.108516</v>
-      </c>
+      <c r="N156" s="12"/>
     </row>
     <row r="157" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N157" s="12">
-        <v>0.14938799999999999</v>
-      </c>
+      <c r="N157" s="12"/>
     </row>
     <row r="158" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N158" s="12">
-        <v>0.19126399999999999</v>
-      </c>
+      <c r="N158" s="12"/>
     </row>
     <row r="159" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N159" s="12">
-        <v>0.20180899999999999</v>
-      </c>
+      <c r="N159" s="12"/>
     </row>
     <row r="160" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N160" s="12">
-        <v>0.19261300000000001</v>
-      </c>
+      <c r="N160" s="12"/>
     </row>
     <row r="161" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N161" s="12">
-        <v>0.16282199999999999</v>
-      </c>
+      <c r="N161" s="12"/>
     </row>
     <row r="162" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N162" s="12">
-        <v>9.5656000000000005E-2</v>
-      </c>
+      <c r="N162" s="12"/>
     </row>
     <row r="163" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N163" s="12">
-        <v>0.123692</v>
-      </c>
+      <c r="N163" s="12"/>
     </row>
     <row r="164" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N164" s="12">
-        <v>0.14780499999999999</v>
-      </c>
+      <c r="N164" s="12"/>
     </row>
     <row r="165" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N165" s="12">
-        <v>0.19157299999999999</v>
-      </c>
+      <c r="N165" s="12"/>
     </row>
     <row r="166" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N166" s="12">
-        <v>0.224298</v>
-      </c>
+      <c r="N166" s="12"/>
     </row>
     <row r="167" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N167" s="12">
-        <v>0.15767300000000001</v>
-      </c>
+      <c r="N167" s="12"/>
     </row>
     <row r="168" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N168" s="12">
-        <v>7.6447000000000001E-2</v>
-      </c>
+      <c r="N168" s="12"/>
     </row>
     <row r="169" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N169" s="12">
-        <v>0.109815</v>
-      </c>
+      <c r="N169" s="12"/>
     </row>
     <row r="170" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N170" s="12">
-        <v>0.19453599999999999</v>
-      </c>
+      <c r="N170" s="12"/>
     </row>
     <row r="171" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N171" s="12">
-        <v>0.186249</v>
-      </c>
+      <c r="N171" s="12"/>
     </row>
     <row r="172" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N172" s="12">
-        <v>7.5220999999999996E-2</v>
-      </c>
+      <c r="N172" s="12"/>
     </row>
     <row r="173" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N173" s="12">
-        <v>9.9085999999999994E-2</v>
-      </c>
+      <c r="N173" s="12"/>
     </row>
     <row r="174" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N174" s="12">
-        <v>0.143988</v>
-      </c>
+      <c r="N174" s="12"/>
     </row>
     <row r="175" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N175" s="12">
-        <v>0.12449200000000001</v>
-      </c>
+      <c r="N175" s="12"/>
     </row>
     <row r="176" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N176" s="12">
-        <v>8.4517999999999996E-2</v>
-      </c>
+      <c r="N176" s="12"/>
     </row>
     <row r="177" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N177" s="12">
-        <v>0.123251</v>
-      </c>
+      <c r="N177" s="12"/>
     </row>
     <row r="178" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N178" s="12">
-        <v>0.145233</v>
-      </c>
+      <c r="N178" s="12"/>
     </row>
     <row r="179" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N179" s="12">
-        <v>0.18732299999999999</v>
-      </c>
+      <c r="N179" s="12"/>
     </row>
     <row r="180" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N180" s="12">
-        <v>0.14416699999999999</v>
-      </c>
+      <c r="N180" s="12"/>
     </row>
     <row r="181" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N181" s="12">
-        <v>0.12717700000000001</v>
-      </c>
+      <c r="N181" s="12"/>
     </row>
     <row r="182" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N182" s="12">
-        <v>8.2541000000000003E-2</v>
-      </c>
+      <c r="N182" s="12"/>
     </row>
     <row r="183" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N183" s="12">
-        <v>0.11303000000000001</v>
-      </c>
+      <c r="N183" s="12"/>
     </row>
     <row r="184" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N184" s="12">
-        <v>0.15881600000000001</v>
-      </c>
+      <c r="N184" s="12"/>
     </row>
     <row r="185" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N185" s="12">
-        <v>0.21837300000000001</v>
-      </c>
+      <c r="N185" s="12"/>
     </row>
     <row r="186" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N186" s="12">
-        <v>0.150621</v>
-      </c>
+      <c r="N186" s="12"/>
     </row>
     <row r="187" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N187" s="12">
-        <v>0.15887100000000001</v>
-      </c>
+      <c r="N187" s="12"/>
     </row>
     <row r="188" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N188" s="12">
-        <v>0.21080399999999999</v>
-      </c>
+      <c r="N188" s="12"/>
     </row>
     <row r="189" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N189" s="12">
-        <v>0.107585</v>
-      </c>
+      <c r="N189" s="12"/>
     </row>
     <row r="190" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N190" s="12">
-        <v>0.141124</v>
-      </c>
+      <c r="N190" s="12"/>
     </row>
     <row r="191" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N191" s="12">
-        <v>0.15587300000000001</v>
-      </c>
+      <c r="N191" s="12"/>
     </row>
     <row r="192" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N192" s="12">
-        <v>0.20413300000000001</v>
-      </c>
+      <c r="N192" s="12"/>
     </row>
     <row r="193" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N193" s="12">
-        <v>0.200069</v>
-      </c>
+      <c r="N193" s="12"/>
     </row>
     <row r="194" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N194" s="12">
-        <v>0.21542900000000001</v>
-      </c>
+      <c r="N194" s="12"/>
     </row>
     <row r="195" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N195" s="12">
-        <v>7.5634999999999994E-2</v>
-      </c>
+      <c r="N195" s="12"/>
     </row>
     <row r="196" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N196" s="12">
-        <v>0.186278</v>
-      </c>
+      <c r="N196" s="12"/>
     </row>
     <row r="197" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N197" s="12">
-        <v>0.17700099999999999</v>
-      </c>
+      <c r="N197" s="12"/>
     </row>
     <row r="198" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N198" s="12">
-        <v>0.18504000000000001</v>
-      </c>
+      <c r="N198" s="12"/>
     </row>
     <row r="199" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N199" s="12">
-        <v>0.108651</v>
-      </c>
+      <c r="N199" s="12"/>
     </row>
     <row r="200" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N200" s="12">
-        <v>0.14318500000000001</v>
-      </c>
+      <c r="N200" s="12"/>
     </row>
     <row r="201" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N201" s="12">
-        <v>0.186554</v>
-      </c>
+      <c r="N201" s="12"/>
     </row>
     <row r="202" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N202" s="12">
-        <v>0.215813</v>
-      </c>
+      <c r="N202" s="12"/>
     </row>
     <row r="203" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N203" s="12">
-        <v>0.26036900000000002</v>
-      </c>
+      <c r="N203" s="12"/>
     </row>
     <row r="204" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N204" s="12">
-        <v>0.17546100000000001</v>
-      </c>
+      <c r="N204" s="12"/>
     </row>
     <row r="205" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N205" s="12">
-        <v>0.103492</v>
-      </c>
+      <c r="N205" s="12"/>
     </row>
     <row r="206" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N206" s="12">
-        <v>0.12109200000000001</v>
-      </c>
+      <c r="N206" s="12"/>
     </row>
     <row r="207" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N207" s="12">
-        <v>0.16710900000000001</v>
-      </c>
+      <c r="N207" s="12"/>
     </row>
     <row r="208" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N208" s="12">
-        <v>0.19802400000000001</v>
-      </c>
+      <c r="N208" s="12"/>
     </row>
     <row r="209" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N209" s="12">
-        <v>0.24047099999999999</v>
-      </c>
+      <c r="N209" s="12"/>
     </row>
     <row r="210" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N210" s="12">
-        <v>0.278893</v>
-      </c>
+      <c r="N210" s="12"/>
     </row>
     <row r="211" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N211" s="12">
-        <v>0.116829</v>
-      </c>
+      <c r="N211" s="12"/>
     </row>
     <row r="212" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N212" s="12">
-        <v>7.6147999999999993E-2</v>
-      </c>
+      <c r="N212" s="12"/>
     </row>
     <row r="213" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N213" s="12">
-        <v>0.10367700000000001</v>
-      </c>
+      <c r="N213" s="12"/>
     </row>
     <row r="214" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N214" s="12">
-        <v>7.2246000000000005E-2</v>
-      </c>
+      <c r="N214" s="12"/>
     </row>
     <row r="215" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N215" s="12">
-        <v>0.107309</v>
-      </c>
+      <c r="N215" s="12"/>
     </row>
     <row r="216" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N216" s="12">
-        <v>0.18585399999999999</v>
-      </c>
+      <c r="N216" s="12"/>
     </row>
     <row r="217" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N217" s="12">
-        <v>0.119812</v>
-      </c>
+      <c r="N217" s="12"/>
     </row>
     <row r="218" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N218" s="12">
-        <v>7.8127000000000002E-2</v>
-      </c>
+      <c r="N218" s="12"/>
     </row>
     <row r="219" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N219" s="12">
-        <v>0.115083</v>
-      </c>
+      <c r="N219" s="12"/>
     </row>
     <row r="220" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N220" s="12">
-        <v>0.138932</v>
-      </c>
+      <c r="N220" s="12"/>
     </row>
     <row r="221" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N221" s="12">
-        <v>0.14096500000000001</v>
-      </c>
+      <c r="N221" s="12"/>
     </row>
     <row r="222" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N222" s="12">
-        <v>8.0855999999999997E-2</v>
-      </c>
+      <c r="N222" s="12"/>
     </row>
     <row r="223" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N223" s="12">
-        <v>0.10830099999999999</v>
-      </c>
+      <c r="N223" s="12"/>
     </row>
     <row r="224" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N224" s="12">
-        <v>0.1464</v>
-      </c>
+      <c r="N224" s="12"/>
     </row>
     <row r="225" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N225" s="12">
-        <v>0.18857399999999999</v>
-      </c>
+      <c r="N225" s="12"/>
     </row>
     <row r="226" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N226" s="12">
-        <v>0.13922699999999999</v>
-      </c>
+      <c r="N226" s="12"/>
     </row>
     <row r="227" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N227" s="12">
-        <v>9.8024E-2</v>
-      </c>
+      <c r="N227" s="12"/>
     </row>
     <row r="228" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N228" s="12">
-        <v>0.117392</v>
-      </c>
+      <c r="N228" s="12"/>
     </row>
     <row r="229" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N229" s="12">
-        <v>0.173457</v>
-      </c>
+      <c r="N229" s="12"/>
     </row>
     <row r="230" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N230" s="12">
-        <v>0.19189800000000001</v>
-      </c>
+      <c r="N230" s="12"/>
     </row>
     <row r="231" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N231" s="12">
-        <v>0.23291799999999999</v>
-      </c>
+      <c r="N231" s="12"/>
     </row>
     <row r="232" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N232" s="12">
-        <v>0.16708400000000001</v>
-      </c>
+      <c r="N232" s="12"/>
     </row>
     <row r="233" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N233" s="12">
-        <v>8.9467000000000005E-2</v>
-      </c>
+      <c r="N233" s="12"/>
     </row>
     <row r="234" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N234" s="12">
-        <v>0.120695</v>
-      </c>
+      <c r="N234" s="12"/>
     </row>
     <row r="235" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N235" s="12">
-        <v>0.163776</v>
-      </c>
+      <c r="N235" s="12"/>
     </row>
     <row r="236" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N236" s="12">
-        <v>0.209172</v>
-      </c>
+      <c r="N236" s="12"/>
     </row>
     <row r="237" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N237" s="12">
-        <v>0.1673</v>
-      </c>
+      <c r="N237" s="12"/>
     </row>
     <row r="238" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N238" s="12">
-        <v>0.126274</v>
-      </c>
+      <c r="N238" s="12"/>
     </row>
     <row r="239" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N239" s="12">
-        <v>9.9339999999999998E-2</v>
-      </c>
+      <c r="N239" s="12"/>
     </row>
     <row r="240" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N240" s="12">
-        <v>0.122847</v>
-      </c>
+      <c r="N240" s="12"/>
     </row>
     <row r="241" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N241" s="12">
-        <v>0.16239000000000001</v>
-      </c>
+      <c r="N241" s="12"/>
     </row>
     <row r="242" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N242" s="12">
-        <v>0.18621799999999999</v>
-      </c>
+      <c r="N242" s="12"/>
     </row>
     <row r="243" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N243" s="12">
-        <v>0.22095400000000001</v>
-      </c>
+      <c r="N243" s="12"/>
     </row>
     <row r="244" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N244" s="12">
-        <v>0.19869899999999999</v>
-      </c>
+      <c r="N244" s="12"/>
     </row>
     <row r="245" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N245" s="12">
-        <v>0.18118899999999999</v>
-      </c>
+      <c r="N245" s="12"/>
     </row>
     <row r="246" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N246" s="12">
-        <v>9.6266000000000004E-2</v>
-      </c>
+      <c r="N246" s="12"/>
     </row>
     <row r="247" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N247" s="12">
-        <v>0.11476699999999999</v>
-      </c>
+      <c r="N247" s="12"/>
     </row>
     <row r="248" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N248" s="12">
-        <v>0.15365100000000001</v>
-      </c>
+      <c r="N248" s="12"/>
     </row>
     <row r="249" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N249" s="12">
-        <v>0.188442</v>
-      </c>
+      <c r="N249" s="12"/>
     </row>
     <row r="250" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N250" s="12">
-        <v>0.219836</v>
-      </c>
+      <c r="N250" s="12"/>
     </row>
     <row r="251" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N251" s="12">
-        <v>0.12684000000000001</v>
-      </c>
+      <c r="N251" s="12"/>
     </row>
     <row r="252" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N252" s="12">
-        <v>8.3052000000000001E-2</v>
-      </c>
+      <c r="N252" s="12"/>
     </row>
     <row r="253" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N253" s="12">
-        <v>0.110447</v>
-      </c>
+      <c r="N253" s="12"/>
     </row>
     <row r="254" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N254" s="12">
-        <v>0.14974000000000001</v>
-      </c>
+      <c r="N254" s="12"/>
     </row>
     <row r="255" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N255" s="12">
-        <v>8.7262000000000006E-2</v>
-      </c>
+      <c r="N255" s="12"/>
     </row>
     <row r="256" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N256" s="12">
-        <v>0.10649599999999999</v>
-      </c>
-    </row>
-    <row r="257" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N257" s="12">
-        <v>0.156058</v>
-      </c>
-    </row>
-    <row r="258" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N258" s="12">
-        <v>0.18013499999999999</v>
-      </c>
-    </row>
-    <row r="259" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N259" s="12">
-        <v>0.29645100000000002</v>
-      </c>
-    </row>
-    <row r="262" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N262">
-        <f>AVERAGE(N4:N259)</f>
-        <v>0.15486634765625004</v>
-      </c>
-      <c r="O262" t="e">
-        <f>AVERAGE(O4:O259)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q262" t="e">
-        <f>N262/O262</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N256" s="12"/>
+    </row>
+    <row r="257" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N257" s="12"/>
+    </row>
+    <row r="258" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N258" s="12"/>
+    </row>
+    <row r="259" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N259" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Report/SpeedUp.xlsx
+++ b/Report/SpeedUp.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhanukagamage/Dropbox/Monash University/FIT3143/Assignment 2/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4ECEA5-08FA-7343-8FB2-45C7BE593331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162E3ADC-B855-3642-AD6E-7AFBECD78815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="19180" activeTab="2" xr2:uid="{F3CA6A85-1115-7645-940B-AB59F541C353}"/>
+    <workbookView xWindow="-28800" yWindow="4740" windowWidth="28800" windowHeight="33820" activeTab="4" xr2:uid="{F3CA6A85-1115-7645-940B-AB59F541C353}"/>
   </bookViews>
   <sheets>
     <sheet name="tt" sheetId="3" r:id="rId1"/>
     <sheet name="speed up" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Monarch" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>Iteration</t>
   </si>
@@ -126,6 +127,9 @@
   </si>
   <si>
     <t>Dyanamic</t>
+  </si>
+  <si>
+    <t>Dyan</t>
   </si>
 </sst>
 </file>
@@ -229,11 +233,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10959,19 +10963,19 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
       <c r="N16">
         <v>4.0090000000000004E-3</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
       <c r="J17" s="10"/>
       <c r="K17" s="9" t="s">
         <v>1</v>
@@ -11142,11 +11146,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761CBA4C-D172-AC47-AA23-C429FA586896}">
   <dimension ref="D2:Q259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67:J139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="4:17" x14ac:dyDescent="0.2">
       <c r="N2" t="s">
@@ -12329,56 +12337,56 @@
       </c>
     </row>
     <row r="59" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="N59" s="12"/>
+      <c r="N59" s="11"/>
       <c r="P59">
         <v>6.3898999999999997E-2</v>
       </c>
     </row>
     <row r="60" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="N60" s="12"/>
+      <c r="N60" s="11"/>
       <c r="P60">
         <v>0.46150600000000003</v>
       </c>
     </row>
     <row r="61" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="N61" s="12"/>
+      <c r="N61" s="11"/>
       <c r="P61">
         <v>0.33319199999999999</v>
       </c>
     </row>
     <row r="62" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="N62" s="12"/>
+      <c r="N62" s="11"/>
       <c r="P62">
         <v>0.195109</v>
       </c>
     </row>
     <row r="63" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="N63" s="12"/>
+      <c r="N63" s="11"/>
       <c r="P63">
         <v>0.22553400000000001</v>
       </c>
     </row>
     <row r="64" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="N64" s="12"/>
-    </row>
-    <row r="65" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N65" s="12"/>
-    </row>
-    <row r="66" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N66" s="12"/>
-    </row>
-    <row r="67" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N67" s="12"/>
-    </row>
-    <row r="68" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N68" s="12"/>
-    </row>
-    <row r="69" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N69" s="12">
+      <c r="N64" s="11"/>
+    </row>
+    <row r="65" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="N65" s="11"/>
+    </row>
+    <row r="66" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="N66" s="11"/>
+    </row>
+    <row r="67" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="N67" s="11"/>
+    </row>
+    <row r="68" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="N68" s="11"/>
+    </row>
+    <row r="69" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="N69" s="11">
         <f>AVERAGE(N5:N58)</f>
         <v>0.26949368518518518</v>
       </c>
-      <c r="O69" s="12">
+      <c r="O69" s="11">
         <f>AVERAGE(O5:O57)</f>
         <v>0.14825860377358491</v>
       </c>
@@ -12391,11 +12399,29 @@
         <v>9.9478340000000026E-2</v>
       </c>
     </row>
-    <row r="70" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N70" s="12"/>
-    </row>
-    <row r="71" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N71" s="12"/>
+    <row r="70" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" t="s">
+        <v>31</v>
+      </c>
+      <c r="N70" s="11"/>
+    </row>
+    <row r="71" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>7.0063E-2</v>
+      </c>
+      <c r="F71">
+        <v>1.0399999999999999E-4</v>
+      </c>
+      <c r="G71">
+        <v>9.9430000000000004E-3</v>
+      </c>
+      <c r="N71" s="11"/>
       <c r="O71">
         <f t="shared" ref="O71:P71" si="0">$N$69/O69</f>
         <v>1.8177271222434148</v>
@@ -12404,571 +12430,1027 @@
         <f t="shared" si="0"/>
         <v>1.8771343290084728</v>
       </c>
-      <c r="Q71" s="13">
+      <c r="Q71" s="12">
         <f>$N$69/Q69</f>
         <v>2.7090689810986501</v>
       </c>
     </row>
-    <row r="72" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N72" s="12"/>
-    </row>
-    <row r="73" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N73" s="12"/>
-    </row>
-    <row r="74" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N74" s="12"/>
-    </row>
-    <row r="75" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N75" s="12"/>
-    </row>
-    <row r="76" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N76" s="12"/>
-    </row>
-    <row r="77" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N77" s="12"/>
-    </row>
-    <row r="78" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N78" s="12"/>
-    </row>
-    <row r="79" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N79" s="12"/>
-    </row>
-    <row r="80" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N80" s="12"/>
-    </row>
-    <row r="81" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N81" s="12"/>
-    </row>
-    <row r="82" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N82" s="12"/>
-    </row>
-    <row r="83" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N83" s="12"/>
-    </row>
-    <row r="84" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N84" s="12"/>
-    </row>
-    <row r="85" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N85" s="12"/>
-    </row>
-    <row r="86" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N86" s="12"/>
-    </row>
-    <row r="87" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N87" s="12"/>
-    </row>
-    <row r="88" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N88" s="12"/>
-    </row>
-    <row r="89" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N89" s="12"/>
-    </row>
-    <row r="90" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N90" s="12"/>
-    </row>
-    <row r="91" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N91" s="12"/>
-    </row>
-    <row r="92" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N92" s="12"/>
-    </row>
-    <row r="93" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N93" s="12"/>
-    </row>
-    <row r="94" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N94" s="12"/>
-    </row>
-    <row r="95" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N95" s="12"/>
-    </row>
-    <row r="96" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N96" s="12"/>
-    </row>
-    <row r="97" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N97" s="12"/>
-    </row>
-    <row r="98" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N98" s="12"/>
-    </row>
-    <row r="99" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N99" s="12"/>
-    </row>
-    <row r="100" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N100" s="12"/>
-    </row>
-    <row r="101" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N101" s="12"/>
-    </row>
-    <row r="102" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N102" s="12"/>
-    </row>
-    <row r="103" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N103" s="12"/>
-    </row>
-    <row r="104" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N104" s="12"/>
-    </row>
-    <row r="105" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N105" s="12"/>
-    </row>
-    <row r="106" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N106" s="12"/>
-    </row>
-    <row r="107" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N107" s="12"/>
-    </row>
-    <row r="108" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N108" s="12"/>
-    </row>
-    <row r="109" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N109" s="12"/>
-    </row>
-    <row r="110" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N110" s="12"/>
-    </row>
-    <row r="111" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N111" s="12"/>
-    </row>
-    <row r="112" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N112" s="12"/>
-    </row>
-    <row r="113" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N113" s="12"/>
-    </row>
-    <row r="115" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N115" s="12"/>
-    </row>
-    <row r="116" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N116" s="12"/>
-    </row>
-    <row r="117" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N117" s="12"/>
-    </row>
-    <row r="118" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N118" s="12"/>
-    </row>
-    <row r="119" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N119" s="12"/>
-    </row>
-    <row r="120" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N120" s="12"/>
-    </row>
-    <row r="121" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N121" s="12"/>
-    </row>
-    <row r="122" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N122" s="12"/>
-    </row>
-    <row r="123" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N123" s="12"/>
-    </row>
-    <row r="124" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N124" s="12"/>
-    </row>
-    <row r="125" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N125" s="12"/>
-    </row>
-    <row r="126" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N126" s="12"/>
-    </row>
-    <row r="127" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N127" s="12"/>
-    </row>
-    <row r="128" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N128" s="12"/>
-    </row>
-    <row r="129" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N129" s="12"/>
-    </row>
-    <row r="130" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N130" s="12"/>
-    </row>
-    <row r="131" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N131" s="12"/>
-    </row>
-    <row r="132" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N132" s="12"/>
-    </row>
-    <row r="133" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N133" s="12"/>
-    </row>
-    <row r="134" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N134" s="12"/>
-    </row>
-    <row r="135" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N135" s="12"/>
-    </row>
-    <row r="136" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N136" s="12"/>
-    </row>
-    <row r="137" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N137" s="12"/>
-    </row>
-    <row r="138" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N138" s="12"/>
-    </row>
-    <row r="139" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N139" s="12"/>
-    </row>
-    <row r="140" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N140" s="12"/>
-    </row>
-    <row r="141" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N141" s="12"/>
-    </row>
-    <row r="142" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N142" s="12"/>
-    </row>
-    <row r="143" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N143" s="12"/>
-    </row>
-    <row r="144" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N144" s="12"/>
+    <row r="72" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <v>5.0494999999999998E-2</v>
+      </c>
+      <c r="F72">
+        <v>2.6600000000000001E-4</v>
+      </c>
+      <c r="G72">
+        <v>5.212E-2</v>
+      </c>
+      <c r="N72" s="11"/>
+    </row>
+    <row r="73" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <v>8.1269999999999995E-2</v>
+      </c>
+      <c r="F73">
+        <v>1.11E-4</v>
+      </c>
+      <c r="G73">
+        <v>3.8461000000000002E-2</v>
+      </c>
+      <c r="N73" s="11"/>
+    </row>
+    <row r="74" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <v>6.3300999999999996E-2</v>
+      </c>
+      <c r="F74">
+        <v>1.64E-4</v>
+      </c>
+      <c r="G74">
+        <v>6.0635000000000001E-2</v>
+      </c>
+      <c r="N74" s="11"/>
+    </row>
+    <row r="75" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <v>7.1858000000000005E-2</v>
+      </c>
+      <c r="F75">
+        <v>8.2000000000000001E-5</v>
+      </c>
+      <c r="G75">
+        <v>5.2602000000000003E-2</v>
+      </c>
+      <c r="N75" s="11"/>
+    </row>
+    <row r="76" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>6.4679E-2</v>
+      </c>
+      <c r="F76">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="G76">
+        <v>1.2966E-2</v>
+      </c>
+      <c r="N76" s="11"/>
+    </row>
+    <row r="77" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <v>8.0365000000000006E-2</v>
+      </c>
+      <c r="F77">
+        <v>9.5000000000000005E-5</v>
+      </c>
+      <c r="G77">
+        <v>2.2459E-2</v>
+      </c>
+      <c r="N77" s="11"/>
+    </row>
+    <row r="78" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <v>7.9764000000000002E-2</v>
+      </c>
+      <c r="F78">
+        <v>8.2000000000000001E-5</v>
+      </c>
+      <c r="G78">
+        <v>1.5025999999999999E-2</v>
+      </c>
+      <c r="N78" s="11"/>
+    </row>
+    <row r="79" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E79">
+        <v>8.3387000000000003E-2</v>
+      </c>
+      <c r="F79">
+        <v>8.5000000000000006E-5</v>
+      </c>
+      <c r="G79">
+        <v>1.6258000000000002E-2</v>
+      </c>
+      <c r="N79" s="11"/>
+    </row>
+    <row r="80" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E80">
+        <v>7.3814000000000005E-2</v>
+      </c>
+      <c r="F80">
+        <v>8.1000000000000004E-5</v>
+      </c>
+      <c r="G80">
+        <v>1.2762000000000001E-2</v>
+      </c>
+      <c r="N80" s="11"/>
+    </row>
+    <row r="81" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>7.4125999999999997E-2</v>
+      </c>
+      <c r="F81">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="G81">
+        <v>1.2956000000000001E-2</v>
+      </c>
+      <c r="N81" s="11"/>
+    </row>
+    <row r="82" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E82">
+        <v>8.6222999999999994E-2</v>
+      </c>
+      <c r="F82">
+        <v>8.6000000000000003E-5</v>
+      </c>
+      <c r="G82">
+        <v>5.3588999999999998E-2</v>
+      </c>
+      <c r="N82" s="11"/>
+    </row>
+    <row r="83" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <v>7.9836000000000004E-2</v>
+      </c>
+      <c r="F83">
+        <v>1.15E-4</v>
+      </c>
+      <c r="G83">
+        <v>1.4406E-2</v>
+      </c>
+      <c r="N83" s="11"/>
+    </row>
+    <row r="84" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E84">
+        <v>9.0804999999999997E-2</v>
+      </c>
+      <c r="F84">
+        <v>9.7E-5</v>
+      </c>
+      <c r="G84">
+        <v>1.2937000000000001E-2</v>
+      </c>
+      <c r="N84" s="11"/>
+    </row>
+    <row r="85" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E85">
+        <v>7.8768000000000005E-2</v>
+      </c>
+      <c r="F85">
+        <v>5.1999999999999997E-5</v>
+      </c>
+      <c r="G85">
+        <v>9.8879999999999992E-3</v>
+      </c>
+      <c r="N85" s="11"/>
+    </row>
+    <row r="86" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E86">
+        <v>8.0002000000000004E-2</v>
+      </c>
+      <c r="F86">
+        <v>9.7E-5</v>
+      </c>
+      <c r="G86">
+        <v>4.5520999999999999E-2</v>
+      </c>
+      <c r="N86" s="11"/>
+    </row>
+    <row r="87" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E87">
+        <v>6.6696000000000005E-2</v>
+      </c>
+      <c r="F87">
+        <v>8.3999999999999995E-5</v>
+      </c>
+      <c r="G87">
+        <v>3.8328000000000001E-2</v>
+      </c>
+      <c r="N87" s="11"/>
+    </row>
+    <row r="88" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E88">
+        <v>6.1275000000000003E-2</v>
+      </c>
+      <c r="F88">
+        <v>6.8999999999999997E-5</v>
+      </c>
+      <c r="G88">
+        <v>5.4593999999999997E-2</v>
+      </c>
+      <c r="N88" s="11"/>
+    </row>
+    <row r="89" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E89">
+        <v>7.4587000000000001E-2</v>
+      </c>
+      <c r="F89">
+        <v>8.2000000000000001E-5</v>
+      </c>
+      <c r="G89">
+        <v>5.6155999999999998E-2</v>
+      </c>
+      <c r="N89" s="11"/>
+    </row>
+    <row r="90" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E90">
+        <v>7.2135000000000005E-2</v>
+      </c>
+      <c r="F90">
+        <v>1.4799999999999999E-4</v>
+      </c>
+      <c r="G90">
+        <v>1.3238E-2</v>
+      </c>
+      <c r="N90" s="11"/>
+    </row>
+    <row r="91" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E91">
+        <v>8.0325999999999995E-2</v>
+      </c>
+      <c r="F91">
+        <v>7.1000000000000005E-5</v>
+      </c>
+      <c r="G91">
+        <v>1.3631000000000001E-2</v>
+      </c>
+      <c r="N91" s="11"/>
+    </row>
+    <row r="92" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E92">
+        <v>8.2818000000000003E-2</v>
+      </c>
+      <c r="F92">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="G92">
+        <v>1.2666999999999999E-2</v>
+      </c>
+      <c r="N92" s="11"/>
+    </row>
+    <row r="93" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E93">
+        <v>0.10129199999999999</v>
+      </c>
+      <c r="F93">
+        <v>9.2999999999999997E-5</v>
+      </c>
+      <c r="G93">
+        <v>1.2576E-2</v>
+      </c>
+      <c r="N93" s="11"/>
+    </row>
+    <row r="94" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E94">
+        <v>6.8283999999999997E-2</v>
+      </c>
+      <c r="F94">
+        <v>7.3999999999999996E-5</v>
+      </c>
+      <c r="G94">
+        <v>1.3448999999999999E-2</v>
+      </c>
+      <c r="N94" s="11"/>
+    </row>
+    <row r="95" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E95">
+        <v>7.6713000000000003E-2</v>
+      </c>
+      <c r="F95">
+        <v>1.08E-4</v>
+      </c>
+      <c r="G95">
+        <v>2.1554E-2</v>
+      </c>
+      <c r="N95" s="11"/>
+    </row>
+    <row r="96" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E96">
+        <v>7.5924000000000005E-2</v>
+      </c>
+      <c r="F96">
+        <v>5.3999999999999998E-5</v>
+      </c>
+      <c r="G96">
+        <v>1.7007000000000001E-2</v>
+      </c>
+      <c r="N96" s="11"/>
+    </row>
+    <row r="97" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E97">
+        <v>0.102969</v>
+      </c>
+      <c r="F97">
+        <v>8.7999999999999998E-5</v>
+      </c>
+      <c r="G97">
+        <v>1.6747000000000001E-2</v>
+      </c>
+      <c r="N97" s="11"/>
+    </row>
+    <row r="98" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E98">
+        <v>8.0950999999999995E-2</v>
+      </c>
+      <c r="F98">
+        <v>1.66E-4</v>
+      </c>
+      <c r="G98">
+        <v>1.298E-2</v>
+      </c>
+      <c r="N98" s="11"/>
+    </row>
+    <row r="99" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E99">
+        <v>7.0602999999999999E-2</v>
+      </c>
+      <c r="F99">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="G99">
+        <v>1.2605E-2</v>
+      </c>
+      <c r="N99" s="11"/>
+    </row>
+    <row r="100" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E100">
+        <v>7.0326E-2</v>
+      </c>
+      <c r="F100">
+        <v>8.5000000000000006E-5</v>
+      </c>
+      <c r="G100">
+        <v>1.0939000000000001E-2</v>
+      </c>
+      <c r="N100" s="11"/>
+    </row>
+    <row r="101" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E101">
+        <v>7.1831000000000006E-2</v>
+      </c>
+      <c r="F101">
+        <v>7.8999999999999996E-5</v>
+      </c>
+      <c r="G101">
+        <v>1.308E-2</v>
+      </c>
+      <c r="N101" s="11"/>
+    </row>
+    <row r="102" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E102">
+        <v>7.0125999999999994E-2</v>
+      </c>
+      <c r="F102">
+        <v>7.2000000000000002E-5</v>
+      </c>
+      <c r="G102">
+        <v>4.0652000000000001E-2</v>
+      </c>
+      <c r="N102" s="11"/>
+    </row>
+    <row r="103" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E103">
+        <v>8.3438999999999999E-2</v>
+      </c>
+      <c r="F103">
+        <v>1.6699999999999999E-4</v>
+      </c>
+      <c r="G103">
+        <v>1.295E-2</v>
+      </c>
+      <c r="N103" s="11"/>
+    </row>
+    <row r="104" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E104">
+        <v>6.6424999999999998E-2</v>
+      </c>
+      <c r="F104">
+        <v>2.13E-4</v>
+      </c>
+      <c r="G104">
+        <v>1.2479000000000001E-2</v>
+      </c>
+      <c r="N104" s="11"/>
+    </row>
+    <row r="105" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E105">
+        <v>8.2036999999999999E-2</v>
+      </c>
+      <c r="F105">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="G105">
+        <v>3.2729000000000001E-2</v>
+      </c>
+      <c r="N105" s="11"/>
+    </row>
+    <row r="106" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E106">
+        <v>0.125695</v>
+      </c>
+      <c r="F106">
+        <v>5.3000000000000001E-5</v>
+      </c>
+      <c r="G106">
+        <v>1.2928E-2</v>
+      </c>
+      <c r="N106" s="11"/>
+    </row>
+    <row r="107" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E107">
+        <v>0.14100799999999999</v>
+      </c>
+      <c r="F107">
+        <v>1.0900000000000001E-4</v>
+      </c>
+      <c r="G107">
+        <v>1.3622E-2</v>
+      </c>
+      <c r="N107" s="11"/>
+    </row>
+    <row r="108" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E108">
+        <v>0.125861</v>
+      </c>
+      <c r="F108">
+        <v>7.8999999999999996E-5</v>
+      </c>
+      <c r="G108">
+        <v>1.3391999999999999E-2</v>
+      </c>
+      <c r="N108" s="11"/>
+    </row>
+    <row r="109" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E109">
+        <v>9.8128000000000007E-2</v>
+      </c>
+      <c r="F109">
+        <v>1.0900000000000001E-4</v>
+      </c>
+      <c r="G109">
+        <v>1.3624000000000001E-2</v>
+      </c>
+      <c r="N109" s="11"/>
+    </row>
+    <row r="110" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E110">
+        <v>6.9325999999999999E-2</v>
+      </c>
+      <c r="F110">
+        <v>7.1000000000000005E-5</v>
+      </c>
+      <c r="G110">
+        <v>1.3795999999999999E-2</v>
+      </c>
+      <c r="N110" s="11"/>
+    </row>
+    <row r="111" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E111">
+        <v>6.8283999999999997E-2</v>
+      </c>
+      <c r="G111">
+        <v>3.1622999999999998E-2</v>
+      </c>
+      <c r="N111" s="11"/>
+    </row>
+    <row r="112" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E112">
+        <v>7.0650000000000004E-2</v>
+      </c>
+      <c r="G112">
+        <v>1.8494E-2</v>
+      </c>
+      <c r="N112" s="11"/>
+    </row>
+    <row r="113" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E113">
+        <v>0.15545800000000001</v>
+      </c>
+      <c r="F113">
+        <f>+AVERAGE(F71:F110)</f>
+        <v>1.0824999999999999E-4</v>
+      </c>
+      <c r="G113">
+        <v>1.3501000000000001E-2</v>
+      </c>
+      <c r="N113" s="11"/>
+    </row>
+    <row r="114" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E114">
+        <v>0.116858</v>
+      </c>
+      <c r="G114">
+        <v>1.3348E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E115">
+        <v>6.0907000000000003E-2</v>
+      </c>
+      <c r="G115">
+        <v>1.5401E-2</v>
+      </c>
+      <c r="N115" s="11"/>
+    </row>
+    <row r="116" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E116">
+        <v>6.3353000000000007E-2</v>
+      </c>
+      <c r="G116">
+        <v>1.3583E-2</v>
+      </c>
+      <c r="N116" s="11"/>
+    </row>
+    <row r="117" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E117">
+        <v>6.1683000000000002E-2</v>
+      </c>
+      <c r="G117">
+        <v>1.2401000000000001E-2</v>
+      </c>
+      <c r="N117" s="11"/>
+    </row>
+    <row r="118" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E118">
+        <v>6.3497999999999999E-2</v>
+      </c>
+      <c r="G118">
+        <v>7.4172000000000002E-2</v>
+      </c>
+      <c r="N118" s="11"/>
+    </row>
+    <row r="119" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E119">
+        <v>6.4878000000000005E-2</v>
+      </c>
+      <c r="G119">
+        <v>1.2684000000000001E-2</v>
+      </c>
+      <c r="N119" s="11"/>
+    </row>
+    <row r="120" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="G120">
+        <v>1.0067E-2</v>
+      </c>
+      <c r="N120" s="11"/>
+    </row>
+    <row r="121" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="G121">
+        <v>1.069E-2</v>
+      </c>
+      <c r="N121" s="11"/>
+    </row>
+    <row r="122" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="G122">
+        <v>1.4076999999999999E-2</v>
+      </c>
+      <c r="N122" s="11"/>
+    </row>
+    <row r="123" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="G123">
+        <v>4.5488000000000001E-2</v>
+      </c>
+      <c r="N123" s="11"/>
+    </row>
+    <row r="124" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="G124">
+        <v>2.495E-2</v>
+      </c>
+      <c r="N124" s="11"/>
+    </row>
+    <row r="125" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="G125">
+        <v>1.2514000000000001E-2</v>
+      </c>
+      <c r="N125" s="11"/>
+    </row>
+    <row r="126" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="G126">
+        <v>1.289E-2</v>
+      </c>
+      <c r="N126" s="11"/>
+    </row>
+    <row r="127" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="G127">
+        <v>1.2288E-2</v>
+      </c>
+      <c r="N127" s="11"/>
+    </row>
+    <row r="128" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="G128">
+        <v>1.3632999999999999E-2</v>
+      </c>
+      <c r="N128" s="11"/>
+    </row>
+    <row r="129" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="G129">
+        <v>1.5396E-2</v>
+      </c>
+      <c r="N129" s="11"/>
+    </row>
+    <row r="130" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="G130">
+        <v>1.2324E-2</v>
+      </c>
+      <c r="N130" s="11"/>
+    </row>
+    <row r="131" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="N131" s="11"/>
+    </row>
+    <row r="132" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="N132" s="11"/>
+    </row>
+    <row r="133" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="N133" s="11"/>
+    </row>
+    <row r="134" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E134">
+        <f>AVERAGE(E71:E119)</f>
+        <v>8.0675510204081646E-2</v>
+      </c>
+      <c r="G134">
+        <f>AVERAGE(G71:G130)</f>
+        <v>2.196293333333333E-2</v>
+      </c>
+      <c r="N134" s="11"/>
+    </row>
+    <row r="135" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="N135" s="11"/>
+    </row>
+    <row r="136" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="N136" s="11"/>
+    </row>
+    <row r="137" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="N137" s="11"/>
+    </row>
+    <row r="138" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="F138">
+        <f>E134/G134</f>
+        <v>3.6732575280206192</v>
+      </c>
+      <c r="N138" s="11"/>
+    </row>
+    <row r="139" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="N139" s="11"/>
+    </row>
+    <row r="140" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="N140" s="11"/>
+    </row>
+    <row r="141" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="N141" s="11"/>
+    </row>
+    <row r="142" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="N142" s="11"/>
+    </row>
+    <row r="143" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="N143" s="11"/>
+    </row>
+    <row r="144" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="N144" s="11"/>
     </row>
     <row r="145" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N145" s="12"/>
+      <c r="N145" s="11"/>
     </row>
     <row r="146" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N146" s="12"/>
+      <c r="N146" s="11"/>
     </row>
     <row r="147" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N147" s="12"/>
+      <c r="N147" s="11"/>
     </row>
     <row r="148" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N148" s="12"/>
+      <c r="N148" s="11"/>
     </row>
     <row r="149" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N149" s="12"/>
+      <c r="N149" s="11"/>
     </row>
     <row r="150" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N150" s="12"/>
+      <c r="N150" s="11"/>
     </row>
     <row r="151" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N151" s="12"/>
+      <c r="N151" s="11"/>
     </row>
     <row r="152" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N152" s="12"/>
+      <c r="N152" s="11"/>
     </row>
     <row r="153" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N153" s="12"/>
+      <c r="N153" s="11"/>
     </row>
     <row r="154" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N154" s="12"/>
+      <c r="N154" s="11"/>
     </row>
     <row r="155" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N155" s="12"/>
+      <c r="N155" s="11"/>
     </row>
     <row r="156" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N156" s="12"/>
+      <c r="N156" s="11"/>
     </row>
     <row r="157" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N157" s="12"/>
+      <c r="N157" s="11"/>
     </row>
     <row r="158" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N158" s="12"/>
+      <c r="N158" s="11"/>
     </row>
     <row r="159" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N159" s="12"/>
+      <c r="N159" s="11"/>
     </row>
     <row r="160" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N160" s="12"/>
+      <c r="N160" s="11"/>
     </row>
     <row r="161" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N161" s="12"/>
+      <c r="N161" s="11"/>
     </row>
     <row r="162" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N162" s="12"/>
+      <c r="N162" s="11"/>
     </row>
     <row r="163" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N163" s="12"/>
+      <c r="N163" s="11"/>
     </row>
     <row r="164" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N164" s="12"/>
+      <c r="N164" s="11"/>
     </row>
     <row r="165" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N165" s="12"/>
+      <c r="N165" s="11"/>
     </row>
     <row r="166" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N166" s="12"/>
+      <c r="N166" s="11"/>
     </row>
     <row r="167" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N167" s="12"/>
+      <c r="N167" s="11"/>
     </row>
     <row r="168" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N168" s="12"/>
+      <c r="N168" s="11"/>
     </row>
     <row r="169" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N169" s="12"/>
+      <c r="N169" s="11"/>
     </row>
     <row r="170" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N170" s="12"/>
+      <c r="N170" s="11"/>
     </row>
     <row r="171" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N171" s="12"/>
+      <c r="N171" s="11"/>
     </row>
     <row r="172" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N172" s="12"/>
+      <c r="N172" s="11"/>
     </row>
     <row r="173" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N173" s="12"/>
+      <c r="N173" s="11"/>
     </row>
     <row r="174" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N174" s="12"/>
+      <c r="N174" s="11"/>
     </row>
     <row r="175" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N175" s="12"/>
+      <c r="N175" s="11"/>
     </row>
     <row r="176" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N176" s="12"/>
+      <c r="N176" s="11"/>
     </row>
     <row r="177" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N177" s="12"/>
+      <c r="N177" s="11"/>
     </row>
     <row r="178" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N178" s="12"/>
+      <c r="N178" s="11"/>
     </row>
     <row r="179" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N179" s="12"/>
+      <c r="N179" s="11"/>
     </row>
     <row r="180" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N180" s="12"/>
+      <c r="N180" s="11"/>
     </row>
     <row r="181" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N181" s="12"/>
+      <c r="N181" s="11"/>
     </row>
     <row r="182" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N182" s="12"/>
+      <c r="N182" s="11"/>
     </row>
     <row r="183" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N183" s="12"/>
+      <c r="N183" s="11"/>
     </row>
     <row r="184" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N184" s="12"/>
+      <c r="N184" s="11"/>
     </row>
     <row r="185" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N185" s="12"/>
+      <c r="N185" s="11"/>
     </row>
     <row r="186" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N186" s="12"/>
+      <c r="N186" s="11"/>
     </row>
     <row r="187" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N187" s="12"/>
+      <c r="N187" s="11"/>
     </row>
     <row r="188" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N188" s="12"/>
+      <c r="N188" s="11"/>
     </row>
     <row r="189" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N189" s="12"/>
+      <c r="N189" s="11"/>
     </row>
     <row r="190" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N190" s="12"/>
+      <c r="N190" s="11"/>
     </row>
     <row r="191" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N191" s="12"/>
+      <c r="N191" s="11"/>
     </row>
     <row r="192" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N192" s="12"/>
+      <c r="N192" s="11"/>
     </row>
     <row r="193" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N193" s="12"/>
+      <c r="N193" s="11"/>
     </row>
     <row r="194" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N194" s="12"/>
+      <c r="N194" s="11"/>
     </row>
     <row r="195" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N195" s="12"/>
+      <c r="N195" s="11"/>
     </row>
     <row r="196" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N196" s="12"/>
+      <c r="N196" s="11"/>
     </row>
     <row r="197" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N197" s="12"/>
+      <c r="N197" s="11"/>
     </row>
     <row r="198" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N198" s="12"/>
+      <c r="N198" s="11"/>
     </row>
     <row r="199" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N199" s="12"/>
+      <c r="N199" s="11"/>
     </row>
     <row r="200" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N200" s="12"/>
+      <c r="N200" s="11"/>
     </row>
     <row r="201" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N201" s="12"/>
+      <c r="N201" s="11"/>
     </row>
     <row r="202" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N202" s="12"/>
+      <c r="N202" s="11"/>
     </row>
     <row r="203" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N203" s="12"/>
+      <c r="N203" s="11"/>
     </row>
     <row r="204" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N204" s="12"/>
+      <c r="N204" s="11"/>
     </row>
     <row r="205" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N205" s="12"/>
+      <c r="N205" s="11"/>
     </row>
     <row r="206" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N206" s="12"/>
+      <c r="N206" s="11"/>
     </row>
     <row r="207" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N207" s="12"/>
+      <c r="N207" s="11"/>
     </row>
     <row r="208" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N208" s="12"/>
+      <c r="N208" s="11"/>
     </row>
     <row r="209" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N209" s="12"/>
+      <c r="N209" s="11"/>
     </row>
     <row r="210" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N210" s="12"/>
+      <c r="N210" s="11"/>
     </row>
     <row r="211" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N211" s="12"/>
+      <c r="N211" s="11"/>
     </row>
     <row r="212" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N212" s="12"/>
+      <c r="N212" s="11"/>
     </row>
     <row r="213" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N213" s="12"/>
+      <c r="N213" s="11"/>
     </row>
     <row r="214" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N214" s="12"/>
+      <c r="N214" s="11"/>
     </row>
     <row r="215" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N215" s="12"/>
+      <c r="N215" s="11"/>
     </row>
     <row r="216" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N216" s="12"/>
+      <c r="N216" s="11"/>
     </row>
     <row r="217" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N217" s="12"/>
+      <c r="N217" s="11"/>
     </row>
     <row r="218" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N218" s="12"/>
+      <c r="N218" s="11"/>
     </row>
     <row r="219" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N219" s="12"/>
+      <c r="N219" s="11"/>
     </row>
     <row r="220" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N220" s="12"/>
+      <c r="N220" s="11"/>
     </row>
     <row r="221" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N221" s="12"/>
+      <c r="N221" s="11"/>
     </row>
     <row r="222" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N222" s="12"/>
+      <c r="N222" s="11"/>
     </row>
     <row r="223" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N223" s="12"/>
+      <c r="N223" s="11"/>
     </row>
     <row r="224" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N224" s="12"/>
+      <c r="N224" s="11"/>
     </row>
     <row r="225" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N225" s="12"/>
+      <c r="N225" s="11"/>
     </row>
     <row r="226" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N226" s="12"/>
+      <c r="N226" s="11"/>
     </row>
     <row r="227" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N227" s="12"/>
+      <c r="N227" s="11"/>
     </row>
     <row r="228" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N228" s="12"/>
+      <c r="N228" s="11"/>
     </row>
     <row r="229" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N229" s="12"/>
+      <c r="N229" s="11"/>
     </row>
     <row r="230" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N230" s="12"/>
+      <c r="N230" s="11"/>
     </row>
     <row r="231" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N231" s="12"/>
+      <c r="N231" s="11"/>
     </row>
     <row r="232" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N232" s="12"/>
+      <c r="N232" s="11"/>
     </row>
     <row r="233" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N233" s="12"/>
+      <c r="N233" s="11"/>
     </row>
     <row r="234" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N234" s="12"/>
+      <c r="N234" s="11"/>
     </row>
     <row r="235" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N235" s="12"/>
+      <c r="N235" s="11"/>
     </row>
     <row r="236" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N236" s="12"/>
+      <c r="N236" s="11"/>
     </row>
     <row r="237" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N237" s="12"/>
+      <c r="N237" s="11"/>
     </row>
     <row r="238" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N238" s="12"/>
+      <c r="N238" s="11"/>
     </row>
     <row r="239" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N239" s="12"/>
+      <c r="N239" s="11"/>
     </row>
     <row r="240" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N240" s="12"/>
+      <c r="N240" s="11"/>
     </row>
     <row r="241" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N241" s="12"/>
+      <c r="N241" s="11"/>
     </row>
     <row r="242" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N242" s="12"/>
+      <c r="N242" s="11"/>
     </row>
     <row r="243" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N243" s="12"/>
+      <c r="N243" s="11"/>
     </row>
     <row r="244" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N244" s="12"/>
+      <c r="N244" s="11"/>
     </row>
     <row r="245" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N245" s="12"/>
+      <c r="N245" s="11"/>
     </row>
     <row r="246" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N246" s="12"/>
+      <c r="N246" s="11"/>
     </row>
     <row r="247" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N247" s="12"/>
+      <c r="N247" s="11"/>
     </row>
     <row r="248" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N248" s="12"/>
+      <c r="N248" s="11"/>
     </row>
     <row r="249" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N249" s="12"/>
+      <c r="N249" s="11"/>
     </row>
     <row r="250" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N250" s="12"/>
+      <c r="N250" s="11"/>
     </row>
     <row r="251" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N251" s="12"/>
+      <c r="N251" s="11"/>
     </row>
     <row r="252" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N252" s="12"/>
+      <c r="N252" s="11"/>
     </row>
     <row r="253" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N253" s="12"/>
+      <c r="N253" s="11"/>
     </row>
     <row r="254" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N254" s="12"/>
+      <c r="N254" s="11"/>
     </row>
     <row r="255" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N255" s="12"/>
+      <c r="N255" s="11"/>
     </row>
     <row r="256" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N256" s="12"/>
+      <c r="N256" s="11"/>
     </row>
     <row r="257" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N257" s="12"/>
+      <c r="N257" s="11"/>
     </row>
     <row r="258" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N258" s="12"/>
+      <c r="N258" s="11"/>
     </row>
     <row r="259" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N259" s="12"/>
+      <c r="N259" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28579,4 +29061,18 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722F6530-5160-5D44-BC47-5D8231C5191B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Report/SpeedUp.xlsx
+++ b/Report/SpeedUp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhanukagamage/Dropbox/Monash University/FIT3143/Assignment 2/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162E3ADC-B855-3642-AD6E-7AFBECD78815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAEBBD8-E758-E246-A825-3C8C37449DAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4740" windowWidth="28800" windowHeight="33820" activeTab="4" xr2:uid="{F3CA6A85-1115-7645-940B-AB59F541C353}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="19180" activeTab="2" xr2:uid="{F3CA6A85-1115-7645-940B-AB59F541C353}"/>
   </bookViews>
   <sheets>
     <sheet name="tt" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>Iteration</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Dyan</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
   </si>
 </sst>
 </file>
@@ -11144,10 +11147,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761CBA4C-D172-AC47-AA23-C429FA586896}">
-  <dimension ref="D2:Q259"/>
+  <dimension ref="A2:Q259"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67:J139"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11156,7 +11159,7 @@
     <col min="6" max="6" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N2" t="s">
         <v>27</v>
       </c>
@@ -11170,7 +11173,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3.8406000000000003E-2</v>
+      </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
@@ -11199,7 +11213,10 @@
         <v>2.4326E-2</v>
       </c>
     </row>
-    <row r="6" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3.2792000000000002E-2</v>
+      </c>
       <c r="D6">
         <v>3.2599999999999999E-3</v>
       </c>
@@ -11222,7 +11239,10 @@
         <v>2.3328000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3.4861999999999997E-2</v>
+      </c>
       <c r="D7">
         <v>1.2960000000000001E-3</v>
       </c>
@@ -11245,7 +11265,10 @@
         <v>4.2486000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3.5360000000000003E-2</v>
+      </c>
       <c r="D8">
         <v>1.9100000000000001E-4</v>
       </c>
@@ -11268,7 +11291,10 @@
         <v>2.7385E-2</v>
       </c>
     </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3.7095999999999997E-2</v>
+      </c>
       <c r="D9">
         <v>7.2900000000000005E-4</v>
       </c>
@@ -11291,7 +11317,10 @@
         <v>7.5443999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5.6238000000000003E-2</v>
+      </c>
       <c r="D10">
         <v>5.4029999999999998E-3</v>
       </c>
@@ -11314,7 +11343,10 @@
         <v>4.8530999999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5.6250000000000001E-2</v>
+      </c>
       <c r="D11">
         <v>5.2129999999999998E-3</v>
       </c>
@@ -11337,7 +11369,10 @@
         <v>4.8611000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5.7583000000000002E-2</v>
+      </c>
       <c r="D12">
         <v>5.5589999999999997E-3</v>
       </c>
@@ -11360,7 +11395,10 @@
         <v>2.9513000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5.6698999999999999E-2</v>
+      </c>
       <c r="D13">
         <v>5.489E-3</v>
       </c>
@@ -11383,7 +11421,10 @@
         <v>0.14466799999999999</v>
       </c>
     </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3.8774000000000003E-2</v>
+      </c>
       <c r="D14">
         <v>5.7910000000000001E-3</v>
       </c>
@@ -11406,7 +11447,10 @@
         <v>8.5402000000000006E-2</v>
       </c>
     </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3.789E-2</v>
+      </c>
       <c r="D15">
         <v>7.4700000000000005E-4</v>
       </c>
@@ -11429,7 +11473,10 @@
         <v>3.7969000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3.7024000000000001E-2</v>
+      </c>
       <c r="D16">
         <v>1.4319999999999999E-3</v>
       </c>
@@ -11452,7 +11499,10 @@
         <v>6.2911999999999996E-2</v>
       </c>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3.2849999999999997E-2</v>
+      </c>
       <c r="D17">
         <v>1.9710000000000001E-3</v>
       </c>
@@ -11475,7 +11525,10 @@
         <v>4.8287999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3.4405999999999999E-2</v>
+      </c>
       <c r="D18">
         <v>2.2309999999999999E-3</v>
       </c>
@@ -11498,7 +11551,10 @@
         <v>5.6764000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5.6388000000000001E-2</v>
+      </c>
       <c r="D19">
         <v>1.596E-3</v>
       </c>
@@ -11521,7 +11577,10 @@
         <v>0.183757</v>
       </c>
     </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5.6957000000000001E-2</v>
+      </c>
       <c r="D20">
         <v>4.8299999999999998E-4</v>
       </c>
@@ -11544,7 +11603,10 @@
         <v>6.2644000000000005E-2</v>
       </c>
     </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5.7287999999999999E-2</v>
+      </c>
       <c r="D21">
         <v>7.7899999999999996E-4</v>
       </c>
@@ -11567,7 +11629,10 @@
         <v>4.0001000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3.8351999999999997E-2</v>
+      </c>
       <c r="D22">
         <v>2.0660000000000001E-3</v>
       </c>
@@ -11590,7 +11655,10 @@
         <v>4.4734999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3.6831000000000003E-2</v>
+      </c>
       <c r="D23">
         <v>2.297E-3</v>
       </c>
@@ -11613,7 +11681,10 @@
         <v>3.8958E-2</v>
       </c>
     </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3.5052E-2</v>
+      </c>
       <c r="D24">
         <v>2.3E-3</v>
       </c>
@@ -11636,7 +11707,10 @@
         <v>4.9216999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3.5587000000000001E-2</v>
+      </c>
       <c r="D25">
         <v>2.0349999999999999E-3</v>
       </c>
@@ -11659,7 +11733,10 @@
         <v>0.15012300000000001</v>
       </c>
     </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3.4651000000000001E-2</v>
+      </c>
       <c r="D26">
         <v>5.2400000000000005E-4</v>
       </c>
@@ -11682,7 +11759,10 @@
         <v>0.23197400000000001</v>
       </c>
     </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5.7242000000000001E-2</v>
+      </c>
       <c r="D27">
         <v>7.7099999999999998E-4</v>
       </c>
@@ -11705,7 +11785,10 @@
         <v>9.1670000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5.6651E-2</v>
+      </c>
       <c r="D28">
         <v>9.9599999999999992E-4</v>
       </c>
@@ -11728,7 +11811,10 @@
         <v>9.5481999999999997E-2</v>
       </c>
     </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5.9811999999999997E-2</v>
+      </c>
       <c r="D29">
         <v>8.2399999999999997E-4</v>
       </c>
@@ -11751,7 +11837,10 @@
         <v>7.2499999999999995E-2</v>
       </c>
     </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5.6482999999999998E-2</v>
+      </c>
       <c r="D30">
         <v>6.8400000000000004E-4</v>
       </c>
@@ -11774,7 +11863,10 @@
         <v>2.7474999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4.0740999999999999E-2</v>
+      </c>
       <c r="D31">
         <v>5.62E-4</v>
       </c>
@@ -11797,7 +11889,10 @@
         <v>0.11612</v>
       </c>
     </row>
-    <row r="32" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3.6032000000000002E-2</v>
+      </c>
       <c r="D32">
         <v>7.5299999999999998E-4</v>
       </c>
@@ -11820,7 +11915,10 @@
         <v>0.101627</v>
       </c>
     </row>
-    <row r="33" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3.6524000000000001E-2</v>
+      </c>
       <c r="D33">
         <v>5.7559999999999998E-3</v>
       </c>
@@ -11843,7 +11941,10 @@
         <v>5.0458000000000003E-2</v>
       </c>
     </row>
-    <row r="34" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3.6176E-2</v>
+      </c>
       <c r="D34">
         <v>5.9680000000000002E-3</v>
       </c>
@@ -11866,7 +11967,10 @@
         <v>3.8975000000000003E-2</v>
       </c>
     </row>
-    <row r="35" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3.5614E-2</v>
+      </c>
       <c r="D35">
         <v>6.2989999999999999E-3</v>
       </c>
@@ -11889,7 +11993,10 @@
         <v>9.7587999999999994E-2</v>
       </c>
     </row>
-    <row r="36" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>5.5400999999999999E-2</v>
+      </c>
       <c r="D36">
         <v>5.8719999999999996E-3</v>
       </c>
@@ -11912,7 +12019,10 @@
         <v>5.8737999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3.7169000000000001E-2</v>
+      </c>
       <c r="D37">
         <v>6.1720000000000004E-3</v>
       </c>
@@ -11935,7 +12045,10 @@
         <v>8.4185999999999997E-2</v>
       </c>
     </row>
-    <row r="38" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3.4518E-2</v>
+      </c>
       <c r="D38">
         <v>1.6100000000000001E-4</v>
       </c>
@@ -11958,7 +12071,10 @@
         <v>0.100733</v>
       </c>
     </row>
-    <row r="39" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3.5251999999999999E-2</v>
+      </c>
       <c r="D39">
         <v>1.9799999999999999E-4</v>
       </c>
@@ -11981,7 +12097,10 @@
         <v>7.1958999999999995E-2</v>
       </c>
     </row>
-    <row r="40" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3.6902999999999998E-2</v>
+      </c>
       <c r="D40">
         <v>1.01E-4</v>
       </c>
@@ -12004,7 +12123,10 @@
         <v>3.3683999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3.4741000000000001E-2</v>
+      </c>
       <c r="D41">
         <v>3.1E-4</v>
       </c>
@@ -12027,7 +12149,10 @@
         <v>0.23037099999999999</v>
       </c>
     </row>
-    <row r="42" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>5.7209999999999997E-2</v>
+      </c>
       <c r="D42">
         <v>8.5099999999999998E-4</v>
       </c>
@@ -12050,7 +12175,10 @@
         <v>0.128859</v>
       </c>
     </row>
-    <row r="43" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>5.7362999999999997E-2</v>
+      </c>
       <c r="D43">
         <v>4.8899999999999996E-4</v>
       </c>
@@ -12073,7 +12201,10 @@
         <v>0.18535199999999999</v>
       </c>
     </row>
-    <row r="44" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>5.7259999999999998E-2</v>
+      </c>
       <c r="D44">
         <v>4.8520000000000004E-3</v>
       </c>
@@ -12093,7 +12224,10 @@
         <v>0.136488</v>
       </c>
     </row>
-    <row r="45" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>5.5191999999999998E-2</v>
+      </c>
       <c r="D45">
         <v>5.2830000000000004E-3</v>
       </c>
@@ -12113,7 +12247,10 @@
         <v>5.8845000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>3.7017000000000001E-2</v>
+      </c>
       <c r="D46">
         <v>5.3899999999999998E-3</v>
       </c>
@@ -12133,7 +12270,10 @@
         <v>5.4468999999999997E-2</v>
       </c>
     </row>
-    <row r="47" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>3.8017000000000002E-2</v>
+      </c>
       <c r="D47">
         <v>1.1039999999999999E-3</v>
       </c>
@@ -12150,7 +12290,10 @@
         <v>7.5442999999999996E-2</v>
       </c>
     </row>
-    <row r="48" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>3.7067000000000003E-2</v>
+      </c>
       <c r="D48">
         <v>6.8599999999999998E-4</v>
       </c>
@@ -12167,7 +12310,10 @@
         <v>6.2049E-2</v>
       </c>
     </row>
-    <row r="49" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>3.6074000000000002E-2</v>
+      </c>
       <c r="D49">
         <v>5.4190000000000002E-3</v>
       </c>
@@ -12184,7 +12330,10 @@
         <v>0.33216099999999998</v>
       </c>
     </row>
-    <row r="50" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>4.0309999999999999E-2</v>
+      </c>
       <c r="D50">
         <v>5.7629999999999999E-3</v>
       </c>
@@ -12209,7 +12358,10 @@
         <v>0.13633999999999999</v>
       </c>
     </row>
-    <row r="51" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>5.7855999999999998E-2</v>
+      </c>
       <c r="D51">
         <v>6.0679999999999996E-3</v>
       </c>
@@ -12226,7 +12378,10 @@
         <v>0.14674599999999999</v>
       </c>
     </row>
-    <row r="52" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>5.6701000000000001E-2</v>
+      </c>
       <c r="D52">
         <v>6.5929999999999999E-3</v>
       </c>
@@ -12243,7 +12398,10 @@
         <v>0.326067</v>
       </c>
     </row>
-    <row r="53" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>4.1480000000000003E-2</v>
+      </c>
       <c r="D53">
         <v>6.4799999999999996E-3</v>
       </c>
@@ -12260,7 +12418,10 @@
         <v>0.32636700000000002</v>
       </c>
     </row>
-    <row r="54" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>3.5374999999999997E-2</v>
+      </c>
       <c r="D54">
         <v>5.973E-3</v>
       </c>
@@ -12277,7 +12438,10 @@
         <v>0.17612900000000001</v>
       </c>
     </row>
-    <row r="55" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>3.6019000000000002E-2</v>
+      </c>
       <c r="D55">
         <v>6.3889999999999997E-3</v>
       </c>
@@ -12299,7 +12463,10 @@
         <v>0.37885000000000002</v>
       </c>
     </row>
-    <row r="56" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>3.6276000000000003E-2</v>
+      </c>
       <c r="D56">
         <v>6.509E-3</v>
       </c>
@@ -12313,7 +12480,10 @@
         <v>0.157332</v>
       </c>
     </row>
-    <row r="57" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>3.5840999999999998E-2</v>
+      </c>
       <c r="N57">
         <v>0.90463800000000005</v>
       </c>
@@ -12324,7 +12494,10 @@
         <v>8.7899000000000005E-2</v>
       </c>
     </row>
-    <row r="58" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>0.107765</v>
+      </c>
       <c r="D58">
         <f>AVERAGE(D6:D56)</f>
         <v>3.0327058823529413E-3</v>
@@ -12336,52 +12509,61 @@
         <v>6.4811999999999995E-2</v>
       </c>
     </row>
-    <row r="59" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>3.9233999999999998E-2</v>
+      </c>
       <c r="N59" s="11"/>
       <c r="P59">
         <v>6.3898999999999997E-2</v>
       </c>
     </row>
-    <row r="60" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>4.1216000000000003E-2</v>
+      </c>
       <c r="N60" s="11"/>
       <c r="P60">
         <v>0.46150600000000003</v>
       </c>
     </row>
-    <row r="61" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>4.3656E-2</v>
+      </c>
       <c r="N61" s="11"/>
       <c r="P61">
         <v>0.33319199999999999</v>
       </c>
     </row>
-    <row r="62" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N62" s="11"/>
       <c r="P62">
         <v>0.195109</v>
       </c>
     </row>
-    <row r="63" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N63" s="11"/>
       <c r="P63">
         <v>0.22553400000000001</v>
       </c>
     </row>
-    <row r="64" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N64" s="11"/>
     </row>
-    <row r="65" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="N65" s="11"/>
     </row>
-    <row r="66" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="N66" s="11"/>
     </row>
-    <row r="67" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="N67" s="11"/>
     </row>
-    <row r="68" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="N68" s="11"/>
     </row>
-    <row r="69" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="N69" s="11">
         <f>AVERAGE(N5:N58)</f>
         <v>0.26949368518518518</v>
@@ -12399,7 +12581,7 @@
         <v>9.9478340000000026E-2</v>
       </c>
     </row>
-    <row r="70" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E70" t="s">
         <v>27</v>
       </c>
@@ -12411,7 +12593,16 @@
       </c>
       <c r="N70" s="11"/>
     </row>
-    <row r="71" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>2.8858999999999999E-2</v>
+      </c>
+      <c r="C71">
+        <v>2.8840000000000001E-2</v>
+      </c>
+      <c r="D71">
+        <v>2.8844000000000002E-2</v>
+      </c>
       <c r="E71">
         <v>7.0063E-2</v>
       </c>
@@ -12435,7 +12626,16 @@
         <v>2.7090689810986501</v>
       </c>
     </row>
-    <row r="72" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>2.8843000000000001E-2</v>
+      </c>
+      <c r="C72">
+        <v>2.8839E-2</v>
+      </c>
+      <c r="D72">
+        <v>2.8853E-2</v>
+      </c>
       <c r="E72">
         <v>5.0494999999999998E-2</v>
       </c>
@@ -12447,7 +12647,16 @@
       </c>
       <c r="N72" s="11"/>
     </row>
-    <row r="73" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>2.8882999999999999E-2</v>
+      </c>
+      <c r="C73">
+        <v>2.8851999999999999E-2</v>
+      </c>
+      <c r="D73">
+        <v>2.8867E-2</v>
+      </c>
       <c r="E73">
         <v>8.1269999999999995E-2</v>
       </c>
@@ -12459,7 +12668,16 @@
       </c>
       <c r="N73" s="11"/>
     </row>
-    <row r="74" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>2.8867E-2</v>
+      </c>
+      <c r="C74">
+        <v>2.8823999999999999E-2</v>
+      </c>
+      <c r="D74">
+        <v>2.8910000000000002E-2</v>
+      </c>
       <c r="E74">
         <v>6.3300999999999996E-2</v>
       </c>
@@ -12471,7 +12689,16 @@
       </c>
       <c r="N74" s="11"/>
     </row>
-    <row r="75" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>2.8871999999999998E-2</v>
+      </c>
+      <c r="C75">
+        <v>2.8826999999999998E-2</v>
+      </c>
+      <c r="D75">
+        <v>2.8854000000000001E-2</v>
+      </c>
       <c r="E75">
         <v>7.1858000000000005E-2</v>
       </c>
@@ -12483,7 +12710,16 @@
       </c>
       <c r="N75" s="11"/>
     </row>
-    <row r="76" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>2.8858999999999999E-2</v>
+      </c>
+      <c r="C76">
+        <v>2.8837000000000002E-2</v>
+      </c>
+      <c r="D76">
+        <v>2.8851999999999999E-2</v>
+      </c>
       <c r="E76">
         <v>6.4679E-2</v>
       </c>
@@ -12495,7 +12731,16 @@
       </c>
       <c r="N76" s="11"/>
     </row>
-    <row r="77" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>2.8879999999999999E-2</v>
+      </c>
+      <c r="C77">
+        <v>2.8826999999999998E-2</v>
+      </c>
+      <c r="D77">
+        <v>2.8857000000000001E-2</v>
+      </c>
       <c r="E77">
         <v>8.0365000000000006E-2</v>
       </c>
@@ -12507,7 +12752,16 @@
       </c>
       <c r="N77" s="11"/>
     </row>
-    <row r="78" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>2.8843000000000001E-2</v>
+      </c>
+      <c r="C78">
+        <v>2.8833000000000001E-2</v>
+      </c>
+      <c r="D78">
+        <v>2.8899000000000001E-2</v>
+      </c>
       <c r="E78">
         <v>7.9764000000000002E-2</v>
       </c>
@@ -12519,7 +12773,16 @@
       </c>
       <c r="N78" s="11"/>
     </row>
-    <row r="79" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>2.8871000000000001E-2</v>
+      </c>
+      <c r="C79">
+        <v>2.8833000000000001E-2</v>
+      </c>
+      <c r="D79">
+        <v>2.8868999999999999E-2</v>
+      </c>
       <c r="E79">
         <v>8.3387000000000003E-2</v>
       </c>
@@ -12531,7 +12794,16 @@
       </c>
       <c r="N79" s="11"/>
     </row>
-    <row r="80" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>2.8857000000000001E-2</v>
+      </c>
+      <c r="C80">
+        <v>2.8825E-2</v>
+      </c>
+      <c r="D80">
+        <v>2.8916000000000001E-2</v>
+      </c>
       <c r="E80">
         <v>7.3814000000000005E-2</v>
       </c>
@@ -12543,7 +12815,16 @@
       </c>
       <c r="N80" s="11"/>
     </row>
-    <row r="81" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>2.8872999999999999E-2</v>
+      </c>
+      <c r="C81">
+        <v>2.8840999999999999E-2</v>
+      </c>
+      <c r="D81">
+        <v>2.8895000000000001E-2</v>
+      </c>
       <c r="E81">
         <v>7.4125999999999997E-2</v>
       </c>
@@ -12555,7 +12836,16 @@
       </c>
       <c r="N81" s="11"/>
     </row>
-    <row r="82" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>2.8856E-2</v>
+      </c>
+      <c r="C82">
+        <v>2.8822E-2</v>
+      </c>
+      <c r="D82">
+        <v>2.8919E-2</v>
+      </c>
       <c r="E82">
         <v>8.6222999999999994E-2</v>
       </c>
@@ -12567,7 +12857,16 @@
       </c>
       <c r="N82" s="11"/>
     </row>
-    <row r="83" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>2.8857000000000001E-2</v>
+      </c>
+      <c r="C83">
+        <v>2.8844000000000002E-2</v>
+      </c>
+      <c r="D83">
+        <v>2.8844000000000002E-2</v>
+      </c>
       <c r="E83">
         <v>7.9836000000000004E-2</v>
       </c>
@@ -12579,7 +12878,16 @@
       </c>
       <c r="N83" s="11"/>
     </row>
-    <row r="84" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>2.8863E-2</v>
+      </c>
+      <c r="C84">
+        <v>2.8837999999999999E-2</v>
+      </c>
+      <c r="D84">
+        <v>2.8837000000000002E-2</v>
+      </c>
       <c r="E84">
         <v>9.0804999999999997E-2</v>
       </c>
@@ -12591,7 +12899,16 @@
       </c>
       <c r="N84" s="11"/>
     </row>
-    <row r="85" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>2.8858000000000002E-2</v>
+      </c>
+      <c r="C85">
+        <v>2.8812000000000001E-2</v>
+      </c>
+      <c r="D85">
+        <v>2.8875000000000001E-2</v>
+      </c>
       <c r="E85">
         <v>7.8768000000000005E-2</v>
       </c>
@@ -12603,7 +12920,16 @@
       </c>
       <c r="N85" s="11"/>
     </row>
-    <row r="86" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>2.8856E-2</v>
+      </c>
+      <c r="C86">
+        <v>2.8819999999999998E-2</v>
+      </c>
+      <c r="D86">
+        <v>2.8851999999999999E-2</v>
+      </c>
       <c r="E86">
         <v>8.0002000000000004E-2</v>
       </c>
@@ -12615,7 +12941,16 @@
       </c>
       <c r="N86" s="11"/>
     </row>
-    <row r="87" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>2.8867E-2</v>
+      </c>
+      <c r="C87">
+        <v>2.8833999999999999E-2</v>
+      </c>
+      <c r="D87">
+        <v>2.8832E-2</v>
+      </c>
       <c r="E87">
         <v>6.6696000000000005E-2</v>
       </c>
@@ -12627,7 +12962,16 @@
       </c>
       <c r="N87" s="11"/>
     </row>
-    <row r="88" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>2.8874E-2</v>
+      </c>
+      <c r="C88">
+        <v>2.8840000000000001E-2</v>
+      </c>
+      <c r="D88">
+        <v>2.8842E-2</v>
+      </c>
       <c r="E88">
         <v>6.1275000000000003E-2</v>
       </c>
@@ -12639,7 +12983,16 @@
       </c>
       <c r="N88" s="11"/>
     </row>
-    <row r="89" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>2.8864999999999998E-2</v>
+      </c>
+      <c r="C89">
+        <v>2.8833000000000001E-2</v>
+      </c>
+      <c r="D89">
+        <v>2.8829E-2</v>
+      </c>
       <c r="E89">
         <v>7.4587000000000001E-2</v>
       </c>
@@ -12651,7 +13004,16 @@
       </c>
       <c r="N89" s="11"/>
     </row>
-    <row r="90" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>2.8886999999999999E-2</v>
+      </c>
+      <c r="C90">
+        <v>2.8820999999999999E-2</v>
+      </c>
+      <c r="D90">
+        <v>2.8868000000000001E-2</v>
+      </c>
       <c r="E90">
         <v>7.2135000000000005E-2</v>
       </c>
@@ -12663,7 +13025,16 @@
       </c>
       <c r="N90" s="11"/>
     </row>
-    <row r="91" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>2.8892000000000001E-2</v>
+      </c>
+      <c r="C91">
+        <v>2.8833999999999999E-2</v>
+      </c>
+      <c r="D91">
+        <v>2.8854000000000001E-2</v>
+      </c>
       <c r="E91">
         <v>8.0325999999999995E-2</v>
       </c>
@@ -12675,7 +13046,16 @@
       </c>
       <c r="N91" s="11"/>
     </row>
-    <row r="92" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>2.8854999999999999E-2</v>
+      </c>
+      <c r="C92">
+        <v>2.8843000000000001E-2</v>
+      </c>
+      <c r="D92">
+        <v>2.8878000000000001E-2</v>
+      </c>
       <c r="E92">
         <v>8.2818000000000003E-2</v>
       </c>
@@ -12687,7 +13067,16 @@
       </c>
       <c r="N92" s="11"/>
     </row>
-    <row r="93" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>2.8850000000000001E-2</v>
+      </c>
+      <c r="C93">
+        <v>2.8823000000000001E-2</v>
+      </c>
+      <c r="D93">
+        <v>2.8858000000000002E-2</v>
+      </c>
       <c r="E93">
         <v>0.10129199999999999</v>
       </c>
@@ -12699,7 +13088,16 @@
       </c>
       <c r="N93" s="11"/>
     </row>
-    <row r="94" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>2.8878999999999998E-2</v>
+      </c>
+      <c r="C94">
+        <v>2.8861999999999999E-2</v>
+      </c>
+      <c r="D94">
+        <v>2.8847999999999999E-2</v>
+      </c>
       <c r="E94">
         <v>6.8283999999999997E-2</v>
       </c>
@@ -12711,7 +13109,16 @@
       </c>
       <c r="N94" s="11"/>
     </row>
-    <row r="95" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>2.8850000000000001E-2</v>
+      </c>
+      <c r="C95">
+        <v>2.8816000000000001E-2</v>
+      </c>
+      <c r="D95">
+        <v>2.8839E-2</v>
+      </c>
       <c r="E95">
         <v>7.6713000000000003E-2</v>
       </c>
@@ -12723,7 +13130,16 @@
       </c>
       <c r="N95" s="11"/>
     </row>
-    <row r="96" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>2.8919E-2</v>
+      </c>
+      <c r="C96">
+        <v>2.8840999999999999E-2</v>
+      </c>
+      <c r="D96">
+        <v>2.8851000000000002E-2</v>
+      </c>
       <c r="E96">
         <v>7.5924000000000005E-2</v>
       </c>
@@ -12735,7 +13151,16 @@
       </c>
       <c r="N96" s="11"/>
     </row>
-    <row r="97" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>2.8910000000000002E-2</v>
+      </c>
+      <c r="C97">
+        <v>2.8839E-2</v>
+      </c>
+      <c r="D97">
+        <v>2.8836000000000001E-2</v>
+      </c>
       <c r="E97">
         <v>0.102969</v>
       </c>
@@ -12747,7 +13172,16 @@
       </c>
       <c r="N97" s="11"/>
     </row>
-    <row r="98" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>2.8910000000000002E-2</v>
+      </c>
+      <c r="C98">
+        <v>2.8842E-2</v>
+      </c>
+      <c r="D98">
+        <v>2.8830000000000001E-2</v>
+      </c>
       <c r="E98">
         <v>8.0950999999999995E-2</v>
       </c>
@@ -12759,7 +13193,16 @@
       </c>
       <c r="N98" s="11"/>
     </row>
-    <row r="99" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>2.8896999999999999E-2</v>
+      </c>
+      <c r="C99">
+        <v>2.8826999999999998E-2</v>
+      </c>
+      <c r="D99">
+        <v>2.9475000000000001E-2</v>
+      </c>
       <c r="E99">
         <v>7.0602999999999999E-2</v>
       </c>
@@ -12771,7 +13214,16 @@
       </c>
       <c r="N99" s="11"/>
     </row>
-    <row r="100" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>2.8898E-2</v>
+      </c>
+      <c r="C100">
+        <v>2.8840999999999999E-2</v>
+      </c>
+      <c r="D100">
+        <v>2.8836000000000001E-2</v>
+      </c>
       <c r="E100">
         <v>7.0326E-2</v>
       </c>
@@ -12783,7 +13235,16 @@
       </c>
       <c r="N100" s="11"/>
     </row>
-    <row r="101" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>2.8885000000000001E-2</v>
+      </c>
+      <c r="C101">
+        <v>2.8837000000000002E-2</v>
+      </c>
+      <c r="D101">
+        <v>2.8822E-2</v>
+      </c>
       <c r="E101">
         <v>7.1831000000000006E-2</v>
       </c>
@@ -12795,7 +13256,16 @@
       </c>
       <c r="N101" s="11"/>
     </row>
-    <row r="102" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>2.8927999999999999E-2</v>
+      </c>
+      <c r="C102">
+        <v>2.8840999999999999E-2</v>
+      </c>
+      <c r="D102">
+        <v>2.8826000000000001E-2</v>
+      </c>
       <c r="E102">
         <v>7.0125999999999994E-2</v>
       </c>
@@ -12807,7 +13277,16 @@
       </c>
       <c r="N102" s="11"/>
     </row>
-    <row r="103" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>2.8889000000000001E-2</v>
+      </c>
+      <c r="C103">
+        <v>2.8826999999999998E-2</v>
+      </c>
+      <c r="D103">
+        <v>2.8827999999999999E-2</v>
+      </c>
       <c r="E103">
         <v>8.3438999999999999E-2</v>
       </c>
@@ -12819,7 +13298,16 @@
       </c>
       <c r="N103" s="11"/>
     </row>
-    <row r="104" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>2.8892999999999999E-2</v>
+      </c>
+      <c r="C104">
+        <v>2.8854999999999999E-2</v>
+      </c>
+      <c r="D104">
+        <v>2.8823000000000001E-2</v>
+      </c>
       <c r="E104">
         <v>6.6424999999999998E-2</v>
       </c>
@@ -12831,7 +13319,16 @@
       </c>
       <c r="N104" s="11"/>
     </row>
-    <row r="105" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>2.8913999999999999E-2</v>
+      </c>
+      <c r="C105">
+        <v>2.8833999999999999E-2</v>
+      </c>
+      <c r="D105">
+        <v>2.8829E-2</v>
+      </c>
       <c r="E105">
         <v>8.2036999999999999E-2</v>
       </c>
@@ -12843,7 +13340,16 @@
       </c>
       <c r="N105" s="11"/>
     </row>
-    <row r="106" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>2.8899000000000001E-2</v>
+      </c>
+      <c r="C106">
+        <v>2.8951999999999999E-2</v>
+      </c>
+      <c r="D106">
+        <v>2.8809999999999999E-2</v>
+      </c>
       <c r="E106">
         <v>0.125695</v>
       </c>
@@ -12855,7 +13361,16 @@
       </c>
       <c r="N106" s="11"/>
     </row>
-    <row r="107" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>2.8889000000000001E-2</v>
+      </c>
+      <c r="C107">
+        <v>2.8854999999999999E-2</v>
+      </c>
+      <c r="D107">
+        <v>2.8819000000000001E-2</v>
+      </c>
       <c r="E107">
         <v>0.14100799999999999</v>
       </c>
@@ -12867,7 +13382,16 @@
       </c>
       <c r="N107" s="11"/>
     </row>
-    <row r="108" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>2.8892999999999999E-2</v>
+      </c>
+      <c r="C108">
+        <v>2.8839E-2</v>
+      </c>
+      <c r="D108">
+        <v>2.8804E-2</v>
+      </c>
       <c r="E108">
         <v>0.125861</v>
       </c>
@@ -12879,7 +13403,16 @@
       </c>
       <c r="N108" s="11"/>
     </row>
-    <row r="109" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>2.8917000000000002E-2</v>
+      </c>
+      <c r="C109">
+        <v>2.8882999999999999E-2</v>
+      </c>
+      <c r="D109">
+        <v>2.9316999999999999E-2</v>
+      </c>
       <c r="E109">
         <v>9.8128000000000007E-2</v>
       </c>
@@ -12891,7 +13424,16 @@
       </c>
       <c r="N109" s="11"/>
     </row>
-    <row r="110" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>2.8881E-2</v>
+      </c>
+      <c r="C110">
+        <v>2.8830999999999999E-2</v>
+      </c>
+      <c r="D110">
+        <v>2.8801E-2</v>
+      </c>
       <c r="E110">
         <v>6.9325999999999999E-2</v>
       </c>
@@ -12903,7 +13445,16 @@
       </c>
       <c r="N110" s="11"/>
     </row>
-    <row r="111" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>2.8892000000000001E-2</v>
+      </c>
+      <c r="C111">
+        <v>2.8809999999999999E-2</v>
+      </c>
+      <c r="D111">
+        <v>2.8844000000000002E-2</v>
+      </c>
       <c r="E111">
         <v>6.8283999999999997E-2</v>
       </c>
@@ -12912,7 +13463,16 @@
       </c>
       <c r="N111" s="11"/>
     </row>
-    <row r="112" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>2.8902000000000001E-2</v>
+      </c>
+      <c r="C112">
+        <v>2.8785999999999999E-2</v>
+      </c>
+      <c r="D112">
+        <v>2.8808E-2</v>
+      </c>
       <c r="E112">
         <v>7.0650000000000004E-2</v>
       </c>
@@ -12921,7 +13481,16 @@
       </c>
       <c r="N112" s="11"/>
     </row>
-    <row r="113" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>2.8910000000000002E-2</v>
+      </c>
+      <c r="C113">
+        <v>2.8812999999999998E-2</v>
+      </c>
+      <c r="D113">
+        <v>2.8830999999999999E-2</v>
+      </c>
       <c r="E113">
         <v>0.15545800000000001</v>
       </c>
@@ -12934,7 +13503,16 @@
       </c>
       <c r="N113" s="11"/>
     </row>
-    <row r="114" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>2.8895000000000001E-2</v>
+      </c>
+      <c r="C114">
+        <v>2.8816000000000001E-2</v>
+      </c>
+      <c r="D114">
+        <v>2.8815E-2</v>
+      </c>
       <c r="E114">
         <v>0.116858</v>
       </c>
@@ -12942,7 +13520,16 @@
         <v>1.3348E-2</v>
       </c>
     </row>
-    <row r="115" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>2.8881E-2</v>
+      </c>
+      <c r="C115">
+        <v>2.8802999999999999E-2</v>
+      </c>
+      <c r="D115">
+        <v>2.8813999999999999E-2</v>
+      </c>
       <c r="E115">
         <v>6.0907000000000003E-2</v>
       </c>
@@ -12951,7 +13538,16 @@
       </c>
       <c r="N115" s="11"/>
     </row>
-    <row r="116" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>2.8915E-2</v>
+      </c>
+      <c r="C116">
+        <v>2.8813999999999999E-2</v>
+      </c>
+      <c r="D116">
+        <v>2.8798000000000001E-2</v>
+      </c>
       <c r="E116">
         <v>6.3353000000000007E-2</v>
       </c>
@@ -12960,7 +13556,16 @@
       </c>
       <c r="N116" s="11"/>
     </row>
-    <row r="117" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>2.8882999999999999E-2</v>
+      </c>
+      <c r="C117">
+        <v>2.8806999999999999E-2</v>
+      </c>
+      <c r="D117">
+        <v>2.8827999999999999E-2</v>
+      </c>
       <c r="E117">
         <v>6.1683000000000002E-2</v>
       </c>
@@ -12969,7 +13574,16 @@
       </c>
       <c r="N117" s="11"/>
     </row>
-    <row r="118" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>2.8854999999999999E-2</v>
+      </c>
+      <c r="C118">
+        <v>2.8826000000000001E-2</v>
+      </c>
+      <c r="D118">
+        <v>2.8816000000000001E-2</v>
+      </c>
       <c r="E118">
         <v>6.3497999999999999E-2</v>
       </c>
@@ -12978,7 +13592,16 @@
       </c>
       <c r="N118" s="11"/>
     </row>
-    <row r="119" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>2.8851999999999999E-2</v>
+      </c>
+      <c r="C119">
+        <v>2.8827999999999999E-2</v>
+      </c>
+      <c r="D119">
+        <v>2.8826000000000001E-2</v>
+      </c>
       <c r="E119">
         <v>6.4878000000000005E-2</v>
       </c>
@@ -12987,82 +13610,208 @@
       </c>
       <c r="N119" s="11"/>
     </row>
-    <row r="120" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>2.887E-2</v>
+      </c>
+      <c r="C120">
+        <v>2.8826000000000001E-2</v>
+      </c>
+      <c r="D120">
+        <v>2.8805000000000001E-2</v>
+      </c>
       <c r="G120">
         <v>1.0067E-2</v>
       </c>
       <c r="N120" s="11"/>
     </row>
-    <row r="121" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <v>2.8851999999999999E-2</v>
+      </c>
+      <c r="C121">
+        <v>2.8812000000000001E-2</v>
+      </c>
+      <c r="D121">
+        <v>2.8784000000000001E-2</v>
+      </c>
       <c r="G121">
         <v>1.069E-2</v>
       </c>
       <c r="N121" s="11"/>
     </row>
-    <row r="122" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <v>2.8884E-2</v>
+      </c>
+      <c r="C122">
+        <v>2.8812999999999998E-2</v>
+      </c>
+      <c r="D122">
+        <v>2.8822E-2</v>
+      </c>
       <c r="G122">
         <v>1.4076999999999999E-2</v>
       </c>
       <c r="N122" s="11"/>
     </row>
-    <row r="123" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <v>2.8853E-2</v>
+      </c>
+      <c r="C123">
+        <v>2.8816999999999999E-2</v>
+      </c>
+      <c r="D123">
+        <v>2.8819000000000001E-2</v>
+      </c>
       <c r="G123">
         <v>4.5488000000000001E-2</v>
       </c>
       <c r="N123" s="11"/>
     </row>
-    <row r="124" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B124">
+        <v>2.8867E-2</v>
+      </c>
+      <c r="C124">
+        <v>2.8822E-2</v>
+      </c>
+      <c r="D124">
+        <v>2.8802000000000001E-2</v>
+      </c>
       <c r="G124">
         <v>2.495E-2</v>
       </c>
       <c r="N124" s="11"/>
     </row>
-    <row r="125" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <v>2.896E-2</v>
+      </c>
+      <c r="C125">
+        <v>2.8849E-2</v>
+      </c>
+      <c r="D125">
+        <v>2.8833000000000001E-2</v>
+      </c>
       <c r="G125">
         <v>1.2514000000000001E-2</v>
       </c>
       <c r="N125" s="11"/>
     </row>
-    <row r="126" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B126">
+        <v>2.9017000000000001E-2</v>
+      </c>
+      <c r="C126">
+        <v>2.8819999999999998E-2</v>
+      </c>
+      <c r="D126">
+        <v>2.8792999999999999E-2</v>
+      </c>
       <c r="G126">
         <v>1.289E-2</v>
       </c>
       <c r="N126" s="11"/>
     </row>
-    <row r="127" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B127">
+        <v>2.8930000000000001E-2</v>
+      </c>
+      <c r="C127">
+        <v>2.8822E-2</v>
+      </c>
+      <c r="D127">
+        <v>2.8805999999999998E-2</v>
+      </c>
       <c r="G127">
         <v>1.2288E-2</v>
       </c>
       <c r="N127" s="11"/>
     </row>
-    <row r="128" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B128">
+        <v>2.8884E-2</v>
+      </c>
+      <c r="C128">
+        <v>2.8806999999999999E-2</v>
+      </c>
+      <c r="D128">
+        <v>2.8806999999999999E-2</v>
+      </c>
       <c r="G128">
         <v>1.3632999999999999E-2</v>
       </c>
       <c r="N128" s="11"/>
     </row>
-    <row r="129" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B129">
+        <v>2.8910999999999999E-2</v>
+      </c>
+      <c r="C129">
+        <v>2.8805000000000001E-2</v>
+      </c>
+      <c r="D129">
+        <v>2.8805000000000001E-2</v>
+      </c>
       <c r="G129">
         <v>1.5396E-2</v>
       </c>
       <c r="N129" s="11"/>
     </row>
-    <row r="130" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B130">
+        <v>2.8969000000000002E-2</v>
+      </c>
+      <c r="C130">
+        <v>2.8792000000000002E-2</v>
+      </c>
+      <c r="D130">
+        <v>2.8811E-2</v>
+      </c>
       <c r="G130">
         <v>1.2324E-2</v>
       </c>
       <c r="N130" s="11"/>
     </row>
-    <row r="131" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B131">
+        <v>2.8975000000000001E-2</v>
+      </c>
+      <c r="C131">
+        <v>2.8812000000000001E-2</v>
+      </c>
+      <c r="D131">
+        <v>2.8825E-2</v>
+      </c>
       <c r="N131" s="11"/>
     </row>
-    <row r="132" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C132">
+        <v>2.8802999999999999E-2</v>
+      </c>
+      <c r="D132">
+        <v>2.8819999999999998E-2</v>
+      </c>
       <c r="N132" s="11"/>
     </row>
-    <row r="133" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C133">
+        <v>2.8832E-2</v>
+      </c>
+      <c r="D133">
+        <v>2.8937999999999998E-2</v>
+      </c>
       <c r="N133" s="11"/>
     </row>
-    <row r="134" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C134">
+        <v>2.8833000000000001E-2</v>
+      </c>
+      <c r="D134">
+        <v>2.8805999999999998E-2</v>
+      </c>
       <c r="E134">
         <f>AVERAGE(E71:E119)</f>
         <v>8.0675510204081646E-2</v>
@@ -13073,86 +13822,182 @@
       </c>
       <c r="N134" s="11"/>
     </row>
-    <row r="135" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D135">
+        <v>2.8854000000000001E-2</v>
+      </c>
       <c r="N135" s="11"/>
     </row>
-    <row r="136" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B136">
+        <f>AVERAGE(B71:B131)</f>
+        <v>2.8886803278688519E-2</v>
+      </c>
+      <c r="C136">
+        <f>AVERAGE(C71:C134)</f>
+        <v>2.88301875E-2</v>
+      </c>
+      <c r="D136">
+        <v>2.8809999999999999E-2</v>
+      </c>
       <c r="N136" s="11"/>
     </row>
-    <row r="137" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D137">
+        <v>2.8815E-2</v>
+      </c>
       <c r="N137" s="11"/>
     </row>
-    <row r="138" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D138">
+        <v>2.8795999999999999E-2</v>
+      </c>
+      <c r="E138">
+        <f>D134/G134</f>
+        <v>1.3115734388849092</v>
+      </c>
       <c r="F138">
         <f>E134/G134</f>
         <v>3.6732575280206192</v>
       </c>
       <c r="N138" s="11"/>
     </row>
-    <row r="139" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D139">
+        <v>2.8830000000000001E-2</v>
+      </c>
       <c r="N139" s="11"/>
     </row>
-    <row r="140" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D140">
+        <v>2.8799999999999999E-2</v>
+      </c>
       <c r="N140" s="11"/>
     </row>
-    <row r="141" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B141">
+        <f>D160/B136</f>
+        <v>0.99877866196977838</v>
+      </c>
+      <c r="D141">
+        <v>2.8836000000000001E-2</v>
+      </c>
       <c r="N141" s="11"/>
     </row>
-    <row r="142" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D142">
+        <v>2.8847000000000001E-2</v>
+      </c>
       <c r="N142" s="11"/>
     </row>
-    <row r="143" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D143">
+        <v>2.8816000000000001E-2</v>
+      </c>
       <c r="N143" s="11"/>
     </row>
-    <row r="144" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D144">
+        <v>2.8812999999999998E-2</v>
+      </c>
       <c r="N144" s="11"/>
     </row>
-    <row r="145" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D145">
+        <v>2.8815E-2</v>
+      </c>
       <c r="N145" s="11"/>
     </row>
-    <row r="146" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D146">
+        <v>2.8794E-2</v>
+      </c>
       <c r="N146" s="11"/>
     </row>
-    <row r="147" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D147">
+        <v>2.8809999999999999E-2</v>
+      </c>
       <c r="N147" s="11"/>
     </row>
-    <row r="148" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D148">
+        <v>2.8798000000000001E-2</v>
+      </c>
       <c r="N148" s="11"/>
     </row>
-    <row r="149" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D149">
+        <v>2.8837999999999999E-2</v>
+      </c>
       <c r="N149" s="11"/>
     </row>
-    <row r="150" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C150">
+        <f>D160/C136</f>
+        <v>1.0007400308191796</v>
+      </c>
+      <c r="D150">
+        <v>2.8811E-2</v>
+      </c>
       <c r="N150" s="11"/>
     </row>
-    <row r="151" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D151">
+        <v>2.8924999999999999E-2</v>
+      </c>
       <c r="N151" s="11"/>
     </row>
-    <row r="152" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D152">
+        <v>2.9007000000000002E-2</v>
+      </c>
       <c r="N152" s="11"/>
     </row>
-    <row r="153" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D153">
+        <v>2.8819000000000001E-2</v>
+      </c>
       <c r="N153" s="11"/>
     </row>
-    <row r="154" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D154">
+        <v>2.8850000000000001E-2</v>
+      </c>
       <c r="N154" s="11"/>
     </row>
-    <row r="155" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D155">
+        <v>2.8815E-2</v>
+      </c>
       <c r="N155" s="11"/>
     </row>
-    <row r="156" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D156">
+        <v>2.8851999999999999E-2</v>
+      </c>
       <c r="N156" s="11"/>
     </row>
-    <row r="157" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D157">
+        <v>2.8853E-2</v>
+      </c>
       <c r="N157" s="11"/>
     </row>
-    <row r="158" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D158">
+        <v>2.8975999999999998E-2</v>
+      </c>
       <c r="N158" s="11"/>
     </row>
-    <row r="159" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N159" s="11"/>
     </row>
-    <row r="160" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D160">
+        <f>AVERAGE(D71:D158)</f>
+        <v>2.8851522727272726E-2</v>
+      </c>
       <c r="N160" s="11"/>
     </row>
     <row r="161" spans="14:14" x14ac:dyDescent="0.2">
@@ -29067,8 +29912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722F6530-5160-5D44-BC47-5D8231C5191B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Report/SpeedUp.xlsx
+++ b/Report/SpeedUp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhanukagamage/Dropbox/Monash University/FIT3143/Assignment 2/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1427E03D-F687-6B4D-BFC2-B6D6C3266D69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1758A06-E0CB-FF4A-A8F0-3E346FAE45A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{F3CA6A85-1115-7645-940B-AB59F541C353}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26980" xr2:uid="{F3CA6A85-1115-7645-940B-AB59F541C353}"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithm Analysis" sheetId="3" r:id="rId1"/>
@@ -116,7 +116,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
-    <numFmt numFmtId="170" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -240,19 +240,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -270,22 +267,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -365,7 +365,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="accent1"/>
                     </a:solidFill>
@@ -980,7 +980,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1445,20 +1445,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3078,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8124BA4-CB04-A242-92BF-3436BBD80A43}">
   <dimension ref="A1:L178"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F26" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="AZ44" sqref="AZ44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3090,22 +3076,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="27"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -5517,7 +5503,7 @@
         <v>0.179504</v>
       </c>
       <c r="L69">
-        <f t="shared" ref="L69:L103" si="1">K69/G69</f>
+        <f t="shared" ref="L69:L102" si="1">K69/G69</f>
         <v>4.4875999999999999E-2</v>
       </c>
     </row>
@@ -8040,511 +8026,511 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
     </row>
     <row r="5" spans="1:18" ht="4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I5" s="25"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
     </row>
     <row r="6" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="25"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="8"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:18" ht="34" x14ac:dyDescent="0.2">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>112</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>105</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>177</v>
       </c>
-      <c r="I7" s="25"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="8"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>2.8102848214285714E-2</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>3.0489800000000015E-2</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>2.9907073446327693E-2</v>
       </c>
-      <c r="I8" s="25"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="8"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13">
         <f>C8/D8</f>
         <v>0.92171310452301103</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <f>C8/E8</f>
         <v>0.93967229072814806</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>2.5244017857142854E-2</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>1.5428999999999995E-2</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>1.3659333333333338E-2</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13">
         <f>C10/D10</f>
         <v>1.6361408942344198</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <f>C10/E10</f>
         <v>1.8481149292651797</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
     </row>
     <row r="12" spans="1:18" ht="34" x14ac:dyDescent="0.2">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <f>C8+C10</f>
         <v>5.3346866071428564E-2</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <f>D8+D10</f>
         <v>4.591880000000001E-2</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <f>E8+E10</f>
         <v>4.3566406779661032E-2</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14">
         <f>C12/D12</f>
         <v>1.161765248034107</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <f>C12/E12</f>
         <v>1.2244954315657159</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="I17" s="25"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="I18" s="25"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="I18" s="22"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="I19" s="25"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="I20" s="25"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="8"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8574,39 +8560,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="F4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="2:8" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -8615,7 +8601,7 @@
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
